--- a/InputData/trans/AVMC/Annual Vehicle Maint Cost.xlsx
+++ b/InputData/trans/AVMC/Annual Vehicle Maint Cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\trans\AVMC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/al/trans/avmc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF646FD-413E-4B0A-A984-B8BBA1CEB9B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66F6F87-3E81-0E40-B3ED-0FB46190672D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="405" windowWidth="24435" windowHeight="16275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3740" yWindow="460" windowWidth="24440" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1274,7 +1274,7 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1309,6 +1309,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="140" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="141">
     <cellStyle name="20% - Accent1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1868,21 +1869,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="73.140625" customWidth="1"/>
+    <col min="2" max="2" width="73.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C1" s="28">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1890,57 +1894,57 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="B4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="B5" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="B6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="B7" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="B8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="B11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="B12" s="3">
         <v>2013</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="B13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="B14" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="B15" t="s">
         <v>44</v>
       </c>
@@ -2223,11 +2227,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3039,17 +3043,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="8" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="8" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="16">
       <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
@@ -3296,17 +3300,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="8" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="8" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="16">
       <c r="A1" s="7" t="s">
         <v>15</v>
       </c>

--- a/InputData/trans/AVMC/Annual Vehicle Maint Cost.xlsx
+++ b/InputData/trans/AVMC/Annual Vehicle Maint Cost.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/al/trans/avmc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/trans/avmc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66F6F87-3E81-0E40-B3ED-0FB46190672D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C918BEE-207A-914C-B130-993AA72B1405}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3740" yWindow="460" windowWidth="24440" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3740" yWindow="460" windowWidth="24440" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>

--- a/InputData/trans/AVMC/Annual Vehicle Maint Cost.xlsx
+++ b/InputData/trans/AVMC/Annual Vehicle Maint Cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/trans/avmc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-us-analysis\InputData\trans\AVMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C918BEE-207A-914C-B130-993AA72B1405}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B3C505-ECAA-49CA-9672-DF5CF56F78F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3740" yWindow="460" windowWidth="24440" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="140">
   <si>
     <t>Sources:</t>
   </si>
@@ -443,6 +443,27 @@
   </si>
   <si>
     <t>AVMC Annual Vehicle Maintenance Cost</t>
+  </si>
+  <si>
+    <t>2020 USD/yr</t>
+  </si>
+  <si>
+    <t>Freight BEV HDVs</t>
+  </si>
+  <si>
+    <t>LBNL</t>
+  </si>
+  <si>
+    <t>Why Regional and Long-Haul Trucks are Primed for Electrification Now</t>
+  </si>
+  <si>
+    <t>https://eta-publications.lbl.gov/sites/default/files/updated_5_final_ehdv_report_033121.pdf</t>
+  </si>
+  <si>
+    <t>Table 3</t>
+  </si>
+  <si>
+    <t>LBNL: Includes annual ongoing mainteance and annualized battery replacement every 7 years over a 28 year life</t>
   </si>
 </sst>
 </file>
@@ -1274,7 +1295,7 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1309,7 +1330,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="140" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="141">
     <cellStyle name="20% - Accent1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1869,24 +1889,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="73.1640625" customWidth="1"/>
+    <col min="2" max="2" width="73.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="28">
-        <v>44307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1894,313 +1913,343 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="B5" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="B6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="B7" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="B8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="B11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="B12" s="3">
         <v>2013</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="B13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="B14" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="B15" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="2" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="3">
-        <v>2016</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="9" t="s">
-        <v>67</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>68</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="3">
-        <v>2017</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="9" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="3">
-        <v>2018</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="3">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="9" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="3">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="3">
-        <v>2013</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="3">
-        <v>2012</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="9" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="2" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="3">
-        <v>2018</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="9" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="B65" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="B66" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="B67" s="3">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="B68" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="B69" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="B70" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="1" t="s">
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="1" t="s">
+    <row r="74" spans="1:2">
+      <c r="A74" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68">
+    <row r="75" spans="1:2">
+      <c r="A75">
         <v>1.2969999999999999</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B75" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69">
+    <row r="76" spans="1:2">
+      <c r="A76">
         <v>0.9143273584567535</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B76" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70">
+    <row r="77" spans="1:2">
+      <c r="A77">
         <v>0.95661376543184151</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B77" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71">
+    <row r="78" spans="1:2">
+      <c r="A78">
         <v>0.93665959530026111</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B78" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72">
+    <row r="79" spans="1:2">
+      <c r="A79">
         <v>1.0663762232760343</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B79" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2208,13 +2257,13 @@
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{F7E7A3DE-93B2-4E97-8034-BE9FA2CBB032}"/>
     <hyperlink ref="B14" r:id="rId2" xr:uid="{0A5F8456-85E2-4B46-98CB-42301965587F}"/>
-    <hyperlink ref="B28" r:id="rId3" display="https://www.icao.int/MID/Documents/2017/Aviation Data and Analysis Seminar/PPT3 - Airlines Operating costs and productivity.pdf" xr:uid="{32C07062-31D6-4D64-9941-54355C398A54}"/>
-    <hyperlink ref="B21" r:id="rId4" xr:uid="{A1682FDD-C2BD-495E-8A6B-5F03193720A5}"/>
-    <hyperlink ref="B35" r:id="rId5" xr:uid="{86CB5594-D53D-4996-A0D1-BB39C7D7D625}"/>
-    <hyperlink ref="B41" r:id="rId6" xr:uid="{B0ED8C7C-30CE-4966-BD3F-14CBF2AB2A2B}"/>
-    <hyperlink ref="B48" r:id="rId7" xr:uid="{B27ABC8E-899E-48AC-8608-F37B2EDFED93}"/>
-    <hyperlink ref="B55" r:id="rId8" display="http://www.sparusa.com/Presentations/Presentation-Commercial Ship Life Cycle &amp; Required Freight Rate (RFR) Cost Model.pdf" xr:uid="{4BC70352-C238-4681-9474-B434C82A9EE6}"/>
-    <hyperlink ref="B62" r:id="rId9" xr:uid="{5439DEF3-45BA-42A3-B033-B27D7C2B3817}"/>
+    <hyperlink ref="B35" r:id="rId3" display="https://www.icao.int/MID/Documents/2017/Aviation Data and Analysis Seminar/PPT3 - Airlines Operating costs and productivity.pdf" xr:uid="{32C07062-31D6-4D64-9941-54355C398A54}"/>
+    <hyperlink ref="B28" r:id="rId4" xr:uid="{A1682FDD-C2BD-495E-8A6B-5F03193720A5}"/>
+    <hyperlink ref="B42" r:id="rId5" xr:uid="{86CB5594-D53D-4996-A0D1-BB39C7D7D625}"/>
+    <hyperlink ref="B48" r:id="rId6" xr:uid="{B0ED8C7C-30CE-4966-BD3F-14CBF2AB2A2B}"/>
+    <hyperlink ref="B55" r:id="rId7" xr:uid="{B27ABC8E-899E-48AC-8608-F37B2EDFED93}"/>
+    <hyperlink ref="B62" r:id="rId8" display="http://www.sparusa.com/Presentations/Presentation-Commercial Ship Life Cycle &amp; Required Freight Rate (RFR) Cost Model.pdf" xr:uid="{4BC70352-C238-4681-9474-B434C82A9EE6}"/>
+    <hyperlink ref="B69" r:id="rId9" xr:uid="{5439DEF3-45BA-42A3-B033-B27D7C2B3817}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId10"/>
@@ -2223,15 +2272,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA56E7A-E0B4-48E9-AA66-C39B91D43ABA}">
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2347,7 +2398,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="12">
-        <f>B18/About!$A$68*About!$A$69</f>
+        <f>B18/About!$A$75*About!$A$76</f>
         <v>656.31362430473212</v>
       </c>
       <c r="C20" t="s">
@@ -2359,7 +2410,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="12">
-        <f>B19/About!$A$68*About!$A$69</f>
+        <f>B19/About!$A$75*About!$A$76</f>
         <v>344.72326776048766</v>
       </c>
       <c r="C21" t="s">
@@ -2387,33 +2438,34 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="2" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="10">
+        <f>6500+100*1062*3/28</f>
+        <v>17878.571428571428</v>
+      </c>
+      <c r="C25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="13">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C27" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" t="s">
-        <v>48</v>
-      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B28" s="13">
-        <v>0.22</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C28" t="s">
         <v>47</v>
@@ -2424,37 +2476,39 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29">
-        <v>9270</v>
+        <v>22</v>
+      </c>
+      <c r="B29" s="13">
+        <v>0.22</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>51</v>
+        <v>47</v>
+      </c>
+      <c r="D29" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="13">
-        <f>$B$29*B27</f>
-        <v>2595.6000000000004</v>
+        <v>49</v>
+      </c>
+      <c r="B30">
+        <v>9270</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B31" s="13">
-        <f>$B$29*B28</f>
-        <v>2039.4</v>
+        <f>$B$30*B28</f>
+        <v>2595.6000000000004</v>
       </c>
       <c r="C31" t="s">
         <v>52</v>
@@ -2462,131 +2516,129 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B32" s="13">
-        <f>B30*About!$A$70</f>
-        <v>2482.986689554888</v>
+        <f>$B$30*B29</f>
+        <v>2039.4</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B33" s="13">
-        <f>B31*About!$A$70</f>
-        <v>1950.9181132216977</v>
+        <f>B31*About!$A$77</f>
+        <v>2482.986689554888</v>
       </c>
       <c r="C33" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="B34" s="13"/>
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="13">
+        <f>B32*About!$A$77</f>
+        <v>1950.9181132216977</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="2" t="s">
+      <c r="B35" s="13"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="11"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
+      <c r="B36" s="18"/>
+      <c r="C36" s="11"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="17">
+      <c r="B37" s="17">
         <v>590</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>71</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="B37" s="17">
-        <f>B36*About!$A$71</f>
+    <row r="38" spans="1:4">
+      <c r="B38" s="17">
+        <f>B37*About!$A$78</f>
         <v>552.6291612271541</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="B38" s="19">
-        <v>11.3</v>
-      </c>
-      <c r="C38" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="B39" s="19">
+        <v>11.3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="B40" s="19">
         <v>365</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="B40" s="17">
-        <f>B37*B38*B39</f>
+    <row r="41" spans="1:4">
+      <c r="B41" s="17">
+        <f>B38*B39*B40</f>
         <v>2279318.9754813975</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="B41" s="17"/>
-    </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="2" t="s">
+      <c r="B42" s="17"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="11"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
+      <c r="B43" s="22"/>
+      <c r="C43" s="11"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
         <v>96</v>
       </c>
-      <c r="B43" s="17"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="23" t="s">
+      <c r="B44" s="17"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="B44" s="17"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" s="13">
-        <v>14.36</v>
-      </c>
-      <c r="C45" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45" t="s">
-        <v>97</v>
-      </c>
+      <c r="B45" s="17"/>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B46" s="13">
-        <v>10.49</v>
+        <v>14.36</v>
       </c>
       <c r="C46" t="s">
         <v>86</v>
@@ -2596,429 +2648,443 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="B47" s="17"/>
+      <c r="A47" t="s">
+        <v>85</v>
+      </c>
+      <c r="B47" s="13">
+        <v>10.49</v>
+      </c>
+      <c r="C47" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" t="s">
+      <c r="B48" s="17"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
         <v>108</v>
       </c>
-      <c r="B48" s="24">
+      <c r="B49" s="24">
         <f>AVERAGE(21.4,22.7,23.1,25.8,31.2)</f>
         <v>24.839999999999996</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>87</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D49" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
         <v>88</v>
       </c>
-      <c r="B49" s="19">
+      <c r="B50" s="19">
         <f>24*365</f>
         <v>8760</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
         <v>89</v>
       </c>
-      <c r="B50" s="5">
-        <f>B48*B49</f>
+      <c r="B51" s="5">
+        <f>B49*B50</f>
         <v>217598.39999999997</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="B51" s="17"/>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
+    <row r="52" spans="1:4">
+      <c r="B52" s="17"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
         <v>91</v>
       </c>
-      <c r="B52" s="17">
-        <f>B45*B50</f>
+      <c r="B53" s="17">
+        <f>B46*B51</f>
         <v>3124713.0239999993</v>
-      </c>
-      <c r="C52" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>95</v>
-      </c>
-      <c r="B53" s="17">
-        <f>B46*B50</f>
-        <v>2282607.2159999995</v>
       </c>
       <c r="C53" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" s="17">
+        <f>B47*B51</f>
+        <v>2282607.2159999995</v>
+      </c>
+      <c r="C54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="17">
-        <f>B52*About!$A$72</f>
+      <c r="B55" s="17">
+        <f>B53*About!$A$79</f>
         <v>3332119.6733545554</v>
-      </c>
-      <c r="C54" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>95</v>
-      </c>
-      <c r="B55" s="17">
-        <f>B53*About!$A$72</f>
-        <v>2434118.0622207024</v>
       </c>
       <c r="C55" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="B56" s="17"/>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="B57" s="13"/>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="2" t="s">
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>95</v>
+      </c>
+      <c r="B56" s="17">
+        <f>B54*About!$A$79</f>
+        <v>2434118.0622207024</v>
+      </c>
+      <c r="C56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="B57" s="17"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="B58" s="13"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B58" s="18"/>
-      <c r="C58" s="11"/>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
+      <c r="B59" s="18"/>
+      <c r="C59" s="11"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
         <v>56</v>
       </c>
-      <c r="B59" s="17">
+      <c r="B60" s="17">
         <v>1000</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="B60" s="17">
-        <f>B59*About!A69</f>
+    <row r="61" spans="1:4">
+      <c r="B61" s="17">
+        <f>B60*About!A76</f>
         <v>914.32735845675347</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
         <v>75</v>
       </c>
-      <c r="B61" s="13"/>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
+      <c r="B62" s="13"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
         <v>76</v>
       </c>
-      <c r="B62" s="13"/>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
+      <c r="B63" s="13"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
         <v>77</v>
       </c>
-      <c r="B63" s="13"/>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
+      <c r="B64" s="13"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
         <v>78</v>
       </c>
-      <c r="B64" s="13"/>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="9" t="s">
+      <c r="B65" s="13"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B65" s="13"/>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
+      <c r="B66" s="13"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
         <v>80</v>
       </c>
-      <c r="B66" s="13"/>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="2" t="s">
+      <c r="B67" s="13"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="1" t="s">
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70" t="s">
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
         <v>111</v>
       </c>
-      <c r="B70" s="17">
+      <c r="B71" s="17">
         <v>1695890</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C71" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="1" t="s">
+    <row r="73" spans="1:4">
+      <c r="A73" s="1" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="14" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="14" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
-      <c r="A76" t="s">
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
         <v>111</v>
       </c>
-      <c r="B76" s="25">
+      <c r="B77" s="25">
         <v>0.1</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C77" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="14" t="s">
+    <row r="78" spans="1:4">
+      <c r="A78" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B77" s="10">
+      <c r="B78" s="10">
         <v>30000</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C78" t="s">
         <v>123</v>
       </c>
-      <c r="D77" s="14" t="s">
+      <c r="D78" s="14" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
-      <c r="A78" t="s">
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
         <v>111</v>
       </c>
-      <c r="B78" s="10">
-        <f>B76*B77</f>
+      <c r="B79" s="10">
+        <f>B77*B78</f>
         <v>3000</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C79" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="15" t="s">
+    <row r="84" spans="1:3">
+      <c r="A84" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B83" s="16"/>
-      <c r="C83" s="16"/>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="B85" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="1" t="s">
+    <row r="86" spans="1:3">
+      <c r="A86" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B85" s="20">
+      <c r="B86" s="20">
         <f>B20</f>
         <v>656.31362430473212</v>
       </c>
-      <c r="C85" s="20">
+      <c r="C86" s="20">
         <f>B21</f>
         <v>344.72326776048766</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B86" s="20">
-        <f>B32</f>
-        <v>2482.986689554888</v>
-      </c>
-      <c r="C86" s="20">
-        <f>B33</f>
-        <v>1950.9181132216977</v>
-      </c>
-    </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" s="20">
+        <f>B33</f>
+        <v>2482.986689554888</v>
+      </c>
+      <c r="C87" s="20">
+        <f>B34</f>
+        <v>1950.9181132216977</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B87" s="20">
-        <f>B40</f>
+      <c r="B88" s="20">
+        <f>B41</f>
         <v>2279318.9754813975</v>
       </c>
-      <c r="C87" t="e">
+      <c r="C88" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B88" s="20">
-        <f>B54</f>
-        <v>3332119.6733545554</v>
-      </c>
-      <c r="C88" s="20">
-        <f>B55</f>
-        <v>2434118.0622207024</v>
-      </c>
-    </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="20">
+        <f>B55</f>
+        <v>3332119.6733545554</v>
+      </c>
+      <c r="C89" s="20">
+        <f>B56</f>
+        <v>2434118.0622207024</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B89" s="20">
-        <f>B78</f>
+      <c r="B90" s="20">
+        <f>B79</f>
         <v>3000</v>
       </c>
-      <c r="C89" t="e">
+      <c r="C90" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="1" t="s">
+    <row r="91" spans="1:3">
+      <c r="A91" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B90" s="20">
-        <f>B60</f>
+      <c r="B91" s="20">
+        <f>B61</f>
         <v>914.32735845675347</v>
       </c>
-      <c r="C90" s="21">
-        <f>B90*(C85/B85)</f>
+      <c r="C91" s="21">
+        <f>B91*(C86/B86)</f>
         <v>480.24283381885334</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="15" t="s">
+    <row r="93" spans="1:3">
+      <c r="A93" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="16"/>
+      <c r="C93" s="16"/>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="B94" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B94" s="20">
-        <f>B85</f>
-        <v>656.31362430473212</v>
-      </c>
-      <c r="C94" s="20">
-        <f>C85</f>
-        <v>344.72326776048766</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B95" s="20">
+        <f>B86</f>
+        <v>656.31362430473212</v>
+      </c>
+      <c r="C95" s="20">
+        <f>C86</f>
+        <v>344.72326776048766</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B95" s="20">
+      <c r="B96" s="20">
         <f>B24</f>
         <v>15000</v>
       </c>
-      <c r="C95" s="21">
-        <f>B95*(C86/B86)</f>
+      <c r="C96" s="21">
+        <f>B96*(C87/B87)</f>
         <v>11785.714285714286</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="1" t="s">
+    <row r="97" spans="1:3">
+      <c r="A97" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B96" s="20">
-        <f>B87</f>
+      <c r="B97" s="20">
+        <f>B88</f>
         <v>2279318.9754813975</v>
       </c>
-      <c r="C96" t="e">
+      <c r="C97" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B97" s="20">
-        <f>B54</f>
-        <v>3332119.6733545554</v>
-      </c>
-      <c r="C97" s="20">
-        <f>B55</f>
-        <v>2434118.0622207024</v>
-      </c>
-    </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="20">
+        <f>B55</f>
+        <v>3332119.6733545554</v>
+      </c>
+      <c r="C98" s="20">
+        <f>B56</f>
+        <v>2434118.0622207024</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B98" s="20">
-        <f>B70</f>
+      <c r="B99" s="20">
+        <f>B71</f>
         <v>1695890</v>
       </c>
-      <c r="C98" t="e">
+      <c r="C99" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="1" t="s">
+    <row r="100" spans="1:3">
+      <c r="A100" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B99" t="e">
+      <c r="B100" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-      <c r="C99" t="e">
+      <c r="C100" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -3027,7 +3093,7 @@
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{DEA7D659-12AB-4A56-889B-D770D6477AD9}"/>
     <hyperlink ref="B13" r:id="rId2" xr:uid="{83856772-5164-484D-9C39-5E905DAB68CE}"/>
-    <hyperlink ref="A65" r:id="rId3" xr:uid="{CF3217FC-13DF-41C0-A64F-4474765B54A2}"/>
+    <hyperlink ref="A66" r:id="rId3" xr:uid="{CF3217FC-13DF-41C0-A64F-4474765B54A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -3043,17 +3109,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
-    <col min="6" max="8" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="8" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16">
+    <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
@@ -3084,31 +3150,31 @@
         <v>2</v>
       </c>
       <c r="B2" s="5">
-        <f>'Cost Data'!$C85</f>
+        <f>'Cost Data'!$C86</f>
         <v>344.72326776048766</v>
       </c>
       <c r="C2" s="5">
-        <f>'Cost Data'!$B85</f>
+        <f>'Cost Data'!$B86</f>
         <v>656.31362430473212</v>
       </c>
       <c r="D2" s="5">
-        <f>'Cost Data'!$B85</f>
+        <f>'Cost Data'!$B86</f>
         <v>656.31362430473212</v>
       </c>
       <c r="E2" s="5">
-        <f>'Cost Data'!$B85</f>
+        <f>'Cost Data'!$B86</f>
         <v>656.31362430473212</v>
       </c>
       <c r="F2" s="5">
-        <f>'Cost Data'!$B85</f>
+        <f>'Cost Data'!$B86</f>
         <v>656.31362430473212</v>
       </c>
       <c r="G2" s="5">
-        <f>'Cost Data'!$B85</f>
+        <f>'Cost Data'!$B86</f>
         <v>656.31362430473212</v>
       </c>
       <c r="H2" s="5">
-        <f>'Cost Data'!$C85</f>
+        <f>'Cost Data'!$C86</f>
         <v>344.72326776048766</v>
       </c>
     </row>
@@ -3117,31 +3183,31 @@
         <v>3</v>
       </c>
       <c r="B3" s="5">
-        <f>'Cost Data'!$C86</f>
+        <f>'Cost Data'!$C87</f>
         <v>1950.9181132216977</v>
       </c>
       <c r="C3" s="5">
-        <f>'Cost Data'!$B86</f>
+        <f>'Cost Data'!$B87</f>
         <v>2482.986689554888</v>
       </c>
       <c r="D3" s="5">
-        <f>'Cost Data'!$B86</f>
+        <f>'Cost Data'!$B87</f>
         <v>2482.986689554888</v>
       </c>
       <c r="E3" s="5">
-        <f>'Cost Data'!$B86</f>
+        <f>'Cost Data'!$B87</f>
         <v>2482.986689554888</v>
       </c>
       <c r="F3" s="5">
-        <f>'Cost Data'!$B86</f>
+        <f>'Cost Data'!$B87</f>
         <v>2482.986689554888</v>
       </c>
       <c r="G3" s="5">
-        <f>'Cost Data'!$B86</f>
+        <f>'Cost Data'!$B87</f>
         <v>2482.986689554888</v>
       </c>
       <c r="H3" s="5">
-        <f>'Cost Data'!$C86</f>
+        <f>'Cost Data'!$C87</f>
         <v>1950.9181132216977</v>
       </c>
     </row>
@@ -3153,23 +3219,23 @@
         <v>0</v>
       </c>
       <c r="C4" s="5">
-        <f>'Cost Data'!$B87</f>
+        <f>'Cost Data'!$B88</f>
         <v>2279318.9754813975</v>
       </c>
       <c r="D4" s="5">
-        <f>'Cost Data'!$B87</f>
+        <f>'Cost Data'!$B88</f>
         <v>2279318.9754813975</v>
       </c>
       <c r="E4" s="5">
-        <f>'Cost Data'!$B87</f>
+        <f>'Cost Data'!$B88</f>
         <v>2279318.9754813975</v>
       </c>
       <c r="F4" s="5">
-        <f>'Cost Data'!$B87</f>
+        <f>'Cost Data'!$B88</f>
         <v>2279318.9754813975</v>
       </c>
       <c r="G4" s="5">
-        <f>'Cost Data'!$B87</f>
+        <f>'Cost Data'!$B88</f>
         <v>2279318.9754813975</v>
       </c>
       <c r="H4" s="26">
@@ -3181,31 +3247,31 @@
         <v>5</v>
       </c>
       <c r="B5" s="5">
-        <f>'Cost Data'!$C88</f>
+        <f>'Cost Data'!$C89</f>
         <v>2434118.0622207024</v>
       </c>
       <c r="C5" s="5">
-        <f>'Cost Data'!$B88</f>
+        <f>'Cost Data'!$B89</f>
         <v>3332119.6733545554</v>
       </c>
       <c r="D5" s="5">
-        <f>'Cost Data'!$B88</f>
+        <f>'Cost Data'!$B89</f>
         <v>3332119.6733545554</v>
       </c>
       <c r="E5" s="5">
-        <f>'Cost Data'!$B88</f>
+        <f>'Cost Data'!$B89</f>
         <v>3332119.6733545554</v>
       </c>
       <c r="F5" s="5">
-        <f>'Cost Data'!$B88</f>
+        <f>'Cost Data'!$B89</f>
         <v>3332119.6733545554</v>
       </c>
       <c r="G5" s="5">
-        <f>'Cost Data'!$B88</f>
+        <f>'Cost Data'!$B89</f>
         <v>3332119.6733545554</v>
       </c>
       <c r="H5" s="5">
-        <f>'Cost Data'!$C88</f>
+        <f>'Cost Data'!$C89</f>
         <v>2434118.0622207024</v>
       </c>
     </row>
@@ -3217,23 +3283,23 @@
         <v>0</v>
       </c>
       <c r="C6" s="5">
-        <f>'Cost Data'!$B89</f>
+        <f>'Cost Data'!$B90</f>
         <v>3000</v>
       </c>
       <c r="D6" s="5">
-        <f>'Cost Data'!$B89</f>
+        <f>'Cost Data'!$B90</f>
         <v>3000</v>
       </c>
       <c r="E6" s="5">
-        <f>'Cost Data'!$B89</f>
+        <f>'Cost Data'!$B90</f>
         <v>3000</v>
       </c>
       <c r="F6" s="5">
-        <f>'Cost Data'!$B89</f>
+        <f>'Cost Data'!$B90</f>
         <v>3000</v>
       </c>
       <c r="G6" s="5">
-        <f>'Cost Data'!$B89</f>
+        <f>'Cost Data'!$B90</f>
         <v>3000</v>
       </c>
       <c r="H6" s="26">
@@ -3245,31 +3311,31 @@
         <v>7</v>
       </c>
       <c r="B7" s="5">
-        <f>'Cost Data'!$C90</f>
+        <f>'Cost Data'!$C91</f>
         <v>480.24283381885334</v>
       </c>
       <c r="C7" s="5">
-        <f>'Cost Data'!$B90</f>
+        <f>'Cost Data'!$B91</f>
         <v>914.32735845675347</v>
       </c>
       <c r="D7" s="5">
-        <f>'Cost Data'!$B90</f>
+        <f>'Cost Data'!$B91</f>
         <v>914.32735845675347</v>
       </c>
       <c r="E7" s="5">
-        <f>'Cost Data'!$B90</f>
+        <f>'Cost Data'!$B91</f>
         <v>914.32735845675347</v>
       </c>
       <c r="F7" s="5">
-        <f>'Cost Data'!$B90</f>
+        <f>'Cost Data'!$B91</f>
         <v>914.32735845675347</v>
       </c>
       <c r="G7" s="5">
-        <f>'Cost Data'!$B90</f>
+        <f>'Cost Data'!$B91</f>
         <v>914.32735845675347</v>
       </c>
       <c r="H7" s="5">
-        <f>'Cost Data'!$C90</f>
+        <f>'Cost Data'!$C91</f>
         <v>480.24283381885334</v>
       </c>
     </row>
@@ -3298,19 +3364,21 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="A1:H7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
-    <col min="6" max="8" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="8" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16">
+    <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
@@ -3341,31 +3409,31 @@
         <v>2</v>
       </c>
       <c r="B2" s="6">
-        <f>'Cost Data'!$C94</f>
+        <f>'Cost Data'!$C95</f>
         <v>344.72326776048766</v>
       </c>
       <c r="C2" s="6">
-        <f>'Cost Data'!$B94</f>
+        <f>'Cost Data'!$B95</f>
         <v>656.31362430473212</v>
       </c>
       <c r="D2" s="6">
-        <f>'Cost Data'!$B94</f>
+        <f>'Cost Data'!$B95</f>
         <v>656.31362430473212</v>
       </c>
       <c r="E2" s="6">
-        <f>'Cost Data'!$B94</f>
+        <f>'Cost Data'!$B95</f>
         <v>656.31362430473212</v>
       </c>
       <c r="F2" s="6">
-        <f>'Cost Data'!$B94</f>
+        <f>'Cost Data'!$B95</f>
         <v>656.31362430473212</v>
       </c>
       <c r="G2" s="6">
-        <f>'Cost Data'!$B94</f>
+        <f>'Cost Data'!$B95</f>
         <v>656.31362430473212</v>
       </c>
       <c r="H2" s="6">
-        <f>'Cost Data'!$C94</f>
+        <f>'Cost Data'!$C95</f>
         <v>344.72326776048766</v>
       </c>
     </row>
@@ -3374,31 +3442,31 @@
         <v>3</v>
       </c>
       <c r="B3" s="6">
-        <f>'Cost Data'!$C95</f>
-        <v>11785.714285714286</v>
+        <f>'Cost Data'!B25</f>
+        <v>17878.571428571428</v>
       </c>
       <c r="C3" s="6">
-        <f>'Cost Data'!$B95</f>
+        <f>'Cost Data'!$B96</f>
         <v>15000</v>
       </c>
       <c r="D3" s="6">
-        <f>'Cost Data'!$B95</f>
+        <f>'Cost Data'!$B96</f>
         <v>15000</v>
       </c>
       <c r="E3" s="6">
-        <f>'Cost Data'!$B95</f>
+        <f>'Cost Data'!$B96</f>
         <v>15000</v>
       </c>
       <c r="F3" s="6">
-        <f>'Cost Data'!$B95</f>
+        <f>'Cost Data'!$B96</f>
         <v>15000</v>
       </c>
       <c r="G3" s="6">
-        <f>'Cost Data'!$B95</f>
+        <f>'Cost Data'!$B96</f>
         <v>15000</v>
       </c>
       <c r="H3" s="6">
-        <f>'Cost Data'!$C95</f>
+        <f>'Cost Data'!$C96</f>
         <v>11785.714285714286</v>
       </c>
     </row>
@@ -3410,23 +3478,23 @@
         <v>0</v>
       </c>
       <c r="C4" s="6">
-        <f>'Cost Data'!$B96</f>
+        <f>'Cost Data'!$B97</f>
         <v>2279318.9754813975</v>
       </c>
       <c r="D4" s="6">
-        <f>'Cost Data'!$B96</f>
+        <f>'Cost Data'!$B97</f>
         <v>2279318.9754813975</v>
       </c>
       <c r="E4" s="6">
-        <f>'Cost Data'!$B96</f>
+        <f>'Cost Data'!$B97</f>
         <v>2279318.9754813975</v>
       </c>
       <c r="F4" s="6">
-        <f>'Cost Data'!$B96</f>
+        <f>'Cost Data'!$B97</f>
         <v>2279318.9754813975</v>
       </c>
       <c r="G4" s="6">
-        <f>'Cost Data'!$B96</f>
+        <f>'Cost Data'!$B97</f>
         <v>2279318.9754813975</v>
       </c>
       <c r="H4" s="26">
@@ -3438,31 +3506,31 @@
         <v>5</v>
       </c>
       <c r="B5" s="6">
-        <f>'Cost Data'!$C97</f>
+        <f>'Cost Data'!$C98</f>
         <v>2434118.0622207024</v>
       </c>
       <c r="C5" s="6">
-        <f>'Cost Data'!$B97</f>
+        <f>'Cost Data'!$B98</f>
         <v>3332119.6733545554</v>
       </c>
       <c r="D5" s="6">
-        <f>'Cost Data'!$B97</f>
+        <f>'Cost Data'!$B98</f>
         <v>3332119.6733545554</v>
       </c>
       <c r="E5" s="6">
-        <f>'Cost Data'!$B97</f>
+        <f>'Cost Data'!$B98</f>
         <v>3332119.6733545554</v>
       </c>
       <c r="F5" s="6">
-        <f>'Cost Data'!$B97</f>
+        <f>'Cost Data'!$B98</f>
         <v>3332119.6733545554</v>
       </c>
       <c r="G5" s="6">
-        <f>'Cost Data'!$B97</f>
+        <f>'Cost Data'!$B98</f>
         <v>3332119.6733545554</v>
       </c>
       <c r="H5" s="6">
-        <f>'Cost Data'!$C97</f>
+        <f>'Cost Data'!$C98</f>
         <v>2434118.0622207024</v>
       </c>
     </row>
@@ -3474,23 +3542,23 @@
         <v>0</v>
       </c>
       <c r="C6" s="6">
-        <f>'Cost Data'!$B98</f>
+        <f>'Cost Data'!$B99</f>
         <v>1695890</v>
       </c>
       <c r="D6" s="6">
-        <f>'Cost Data'!$B98</f>
+        <f>'Cost Data'!$B99</f>
         <v>1695890</v>
       </c>
       <c r="E6" s="6">
-        <f>'Cost Data'!$B98</f>
+        <f>'Cost Data'!$B99</f>
         <v>1695890</v>
       </c>
       <c r="F6" s="6">
-        <f>'Cost Data'!$B98</f>
+        <f>'Cost Data'!$B99</f>
         <v>1695890</v>
       </c>
       <c r="G6" s="6">
-        <f>'Cost Data'!$B98</f>
+        <f>'Cost Data'!$B99</f>
         <v>1695890</v>
       </c>
       <c r="H6" s="26">

--- a/InputData/trans/AVMC/Annual Vehicle Maint Cost.xlsx
+++ b/InputData/trans/AVMC/Annual Vehicle Maint Cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-us-analysis\InputData\trans\AVMC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\trans\AVMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B3C505-ECAA-49CA-9672-DF5CF56F78F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF646FD-413E-4B0A-A984-B8BBA1CEB9B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3735" yWindow="405" windowWidth="24435" windowHeight="16275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="133">
   <si>
     <t>Sources:</t>
   </si>
@@ -443,27 +443,6 @@
   </si>
   <si>
     <t>AVMC Annual Vehicle Maintenance Cost</t>
-  </si>
-  <si>
-    <t>2020 USD/yr</t>
-  </si>
-  <si>
-    <t>Freight BEV HDVs</t>
-  </si>
-  <si>
-    <t>LBNL</t>
-  </si>
-  <si>
-    <t>Why Regional and Long-Haul Trucks are Primed for Electrification Now</t>
-  </si>
-  <si>
-    <t>https://eta-publications.lbl.gov/sites/default/files/updated_5_final_ehdv_report_033121.pdf</t>
-  </si>
-  <si>
-    <t>Table 3</t>
-  </si>
-  <si>
-    <t>LBNL: Includes annual ongoing mainteance and annualized battery replacement every 7 years over a 28 year life</t>
   </si>
 </sst>
 </file>
@@ -1889,11 +1868,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B79"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1970,286 +1947,256 @@
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="2" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>135</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="3">
-        <v>2021</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="9" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>138</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="3">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="3">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" t="s">
-        <v>65</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="2" t="s">
-        <v>69</v>
+      <c r="B38" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" t="s">
-        <v>81</v>
+      <c r="B39" s="3">
+        <v>2010</v>
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="3">
-        <v>2018</v>
+      <c r="B40" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" t="s">
-        <v>83</v>
+      <c r="B41" s="9" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="9" t="s">
-        <v>82</v>
+      <c r="B42" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="3">
-        <v>2010</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" s="3">
-        <v>2013</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="9" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" s="2" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" s="3">
-        <v>2012</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="9" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="B65" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="B66" t="s">
-        <v>127</v>
+      <c r="A65" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="B67" s="3">
-        <v>2018</v>
+      <c r="A67" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="68" spans="1:2">
+      <c r="A68">
+        <v>1.2969999999999999</v>
+      </c>
       <c r="B68" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="B69" s="9" t="s">
-        <v>128</v>
+      <c r="A69">
+        <v>0.9143273584567535</v>
+      </c>
+      <c r="B69" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:2">
+      <c r="A70">
+        <v>0.95661376543184151</v>
+      </c>
       <c r="B70" t="s">
-        <v>129</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>0.93665959530026111</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75">
-        <v>1.2969999999999999</v>
-      </c>
-      <c r="B75" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76">
-        <v>0.9143273584567535</v>
-      </c>
-      <c r="B76" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77">
-        <v>0.95661376543184151</v>
-      </c>
-      <c r="B77" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78">
-        <v>0.93665959530026111</v>
-      </c>
-      <c r="B78" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79">
+      <c r="A72">
         <v>1.0663762232760343</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B72" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2257,13 +2204,13 @@
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{F7E7A3DE-93B2-4E97-8034-BE9FA2CBB032}"/>
     <hyperlink ref="B14" r:id="rId2" xr:uid="{0A5F8456-85E2-4B46-98CB-42301965587F}"/>
-    <hyperlink ref="B35" r:id="rId3" display="https://www.icao.int/MID/Documents/2017/Aviation Data and Analysis Seminar/PPT3 - Airlines Operating costs and productivity.pdf" xr:uid="{32C07062-31D6-4D64-9941-54355C398A54}"/>
-    <hyperlink ref="B28" r:id="rId4" xr:uid="{A1682FDD-C2BD-495E-8A6B-5F03193720A5}"/>
-    <hyperlink ref="B42" r:id="rId5" xr:uid="{86CB5594-D53D-4996-A0D1-BB39C7D7D625}"/>
-    <hyperlink ref="B48" r:id="rId6" xr:uid="{B0ED8C7C-30CE-4966-BD3F-14CBF2AB2A2B}"/>
-    <hyperlink ref="B55" r:id="rId7" xr:uid="{B27ABC8E-899E-48AC-8608-F37B2EDFED93}"/>
-    <hyperlink ref="B62" r:id="rId8" display="http://www.sparusa.com/Presentations/Presentation-Commercial Ship Life Cycle &amp; Required Freight Rate (RFR) Cost Model.pdf" xr:uid="{4BC70352-C238-4681-9474-B434C82A9EE6}"/>
-    <hyperlink ref="B69" r:id="rId9" xr:uid="{5439DEF3-45BA-42A3-B033-B27D7C2B3817}"/>
+    <hyperlink ref="B28" r:id="rId3" display="https://www.icao.int/MID/Documents/2017/Aviation Data and Analysis Seminar/PPT3 - Airlines Operating costs and productivity.pdf" xr:uid="{32C07062-31D6-4D64-9941-54355C398A54}"/>
+    <hyperlink ref="B21" r:id="rId4" xr:uid="{A1682FDD-C2BD-495E-8A6B-5F03193720A5}"/>
+    <hyperlink ref="B35" r:id="rId5" xr:uid="{86CB5594-D53D-4996-A0D1-BB39C7D7D625}"/>
+    <hyperlink ref="B41" r:id="rId6" xr:uid="{B0ED8C7C-30CE-4966-BD3F-14CBF2AB2A2B}"/>
+    <hyperlink ref="B48" r:id="rId7" xr:uid="{B27ABC8E-899E-48AC-8608-F37B2EDFED93}"/>
+    <hyperlink ref="B55" r:id="rId8" display="http://www.sparusa.com/Presentations/Presentation-Commercial Ship Life Cycle &amp; Required Freight Rate (RFR) Cost Model.pdf" xr:uid="{4BC70352-C238-4681-9474-B434C82A9EE6}"/>
+    <hyperlink ref="B62" r:id="rId9" xr:uid="{5439DEF3-45BA-42A3-B033-B27D7C2B3817}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId10"/>
@@ -2272,11 +2219,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA56E7A-E0B4-48E9-AA66-C39B91D43ABA}">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2398,7 +2343,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="12">
-        <f>B18/About!$A$75*About!$A$76</f>
+        <f>B18/About!$A$68*About!$A$69</f>
         <v>656.31362430473212</v>
       </c>
       <c r="C20" t="s">
@@ -2410,7 +2355,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="12">
-        <f>B19/About!$A$75*About!$A$76</f>
+        <f>B19/About!$A$68*About!$A$69</f>
         <v>344.72326776048766</v>
       </c>
       <c r="C21" t="s">
@@ -2438,34 +2383,33 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="10">
-        <f>6500+100*1062*3/28</f>
-        <v>17878.571428571428</v>
-      </c>
-      <c r="C25" t="s">
-        <v>133</v>
-      </c>
-      <c r="D25" t="s">
-        <v>139</v>
-      </c>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="13">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B28" s="13">
-        <v>0.28000000000000003</v>
+        <v>0.22</v>
       </c>
       <c r="C28" t="s">
         <v>47</v>
@@ -2476,39 +2420,37 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="13">
-        <v>0.22</v>
+        <v>49</v>
+      </c>
+      <c r="B29">
+        <v>9270</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30">
-        <v>9270</v>
+        <v>46</v>
+      </c>
+      <c r="B30" s="13">
+        <f>$B$29*B27</f>
+        <v>2595.6000000000004</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B31" s="13">
-        <f>$B$30*B28</f>
-        <v>2595.6000000000004</v>
+        <f>$B$29*B28</f>
+        <v>2039.4</v>
       </c>
       <c r="C31" t="s">
         <v>52</v>
@@ -2516,129 +2458,131 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B32" s="13">
-        <f>$B$30*B29</f>
-        <v>2039.4</v>
+        <f>B30*About!$A$70</f>
+        <v>2482.986689554888</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B33" s="13">
-        <f>B31*About!$A$77</f>
-        <v>2482.986689554888</v>
+        <f>B31*About!$A$70</f>
+        <v>1950.9181132216977</v>
       </c>
       <c r="C33" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="13">
-        <f>B32*About!$A$77</f>
-        <v>1950.9181132216977</v>
-      </c>
-      <c r="C34" t="s">
-        <v>38</v>
-      </c>
+      <c r="B34" s="13"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="B35" s="13"/>
+      <c r="A35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="11"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="11"/>
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="17">
+        <v>590</v>
+      </c>
+      <c r="C36" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>56</v>
-      </c>
       <c r="B37" s="17">
-        <v>590</v>
+        <f>B36*About!$A$71</f>
+        <v>552.6291612271541</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
-      </c>
-      <c r="D37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="B38" s="19">
+        <v>11.3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="B38" s="17">
-        <f>B37*About!$A$78</f>
-        <v>552.6291612271541</v>
-      </c>
-      <c r="C38" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="B39" s="19">
-        <v>11.3</v>
+        <v>365</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="B40" s="19">
-        <v>365</v>
+      <c r="B40" s="17">
+        <f>B37*B38*B39</f>
+        <v>2279318.9754813975</v>
       </c>
       <c r="C40" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="B41" s="17">
-        <f>B38*B39*B40</f>
-        <v>2279318.9754813975</v>
-      </c>
-      <c r="C41" t="s">
-        <v>38</v>
-      </c>
+      <c r="B41" s="17"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="B42" s="17"/>
+      <c r="A42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="22"/>
+      <c r="C42" s="11"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="11"/>
+      <c r="A43" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="17"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>96</v>
+      <c r="A44" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="B44" s="17"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="B45" s="17"/>
+      <c r="A45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="13">
+        <v>14.36</v>
+      </c>
+      <c r="C45" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B46" s="13">
-        <v>14.36</v>
+        <v>10.49</v>
       </c>
       <c r="C46" t="s">
         <v>86</v>
@@ -2648,443 +2592,429 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>85</v>
-      </c>
-      <c r="B47" s="13">
-        <v>10.49</v>
-      </c>
-      <c r="C47" t="s">
-        <v>86</v>
-      </c>
-      <c r="D47" t="s">
-        <v>97</v>
-      </c>
+      <c r="B47" s="17"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="B48" s="17"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
+      <c r="A48" t="s">
         <v>108</v>
       </c>
-      <c r="B49" s="24">
+      <c r="B48" s="24">
         <f>AVERAGE(21.4,22.7,23.1,25.8,31.2)</f>
         <v>24.839999999999996</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C48" t="s">
         <v>87</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D48" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
         <v>88</v>
       </c>
-      <c r="B50" s="19">
+      <c r="B49" s="19">
         <f>24*365</f>
         <v>8760</v>
       </c>
+      <c r="C49" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="5">
+        <f>B48*B49</f>
+        <v>217598.39999999997</v>
+      </c>
       <c r="C50" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>89</v>
-      </c>
-      <c r="B51" s="5">
-        <f>B49*B50</f>
-        <v>217598.39999999997</v>
-      </c>
-      <c r="C51" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="B52" s="17"/>
-    </row>
-    <row r="53" spans="1:4">
+    <row r="51" spans="1:3">
+      <c r="B51" s="17"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" s="17">
+        <f>B45*B50</f>
+        <v>3124713.0239999993</v>
+      </c>
+      <c r="C52" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B53" s="17">
-        <f>B46*B51</f>
-        <v>3124713.0239999993</v>
+        <f>B46*B50</f>
+        <v>2282607.2159999995</v>
       </c>
       <c r="C53" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="17">
+        <f>B52*About!$A$72</f>
+        <v>3332119.6733545554</v>
+      </c>
+      <c r="C54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
         <v>95</v>
       </c>
-      <c r="B54" s="17">
-        <f>B47*B51</f>
-        <v>2282607.2159999995</v>
-      </c>
-      <c r="C54" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>91</v>
-      </c>
       <c r="B55" s="17">
-        <f>B53*About!$A$79</f>
-        <v>3332119.6733545554</v>
+        <f>B53*About!$A$72</f>
+        <v>2434118.0622207024</v>
       </c>
       <c r="C55" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
-        <v>95</v>
-      </c>
-      <c r="B56" s="17">
-        <f>B54*About!$A$79</f>
-        <v>2434118.0622207024</v>
-      </c>
-      <c r="C56" t="s">
+    <row r="56" spans="1:3">
+      <c r="B56" s="17"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="B57" s="13"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" s="18"/>
+      <c r="C58" s="11"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="17">
+        <v>1000</v>
+      </c>
+      <c r="C59" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="B60" s="17">
+        <f>B59*About!A69</f>
+        <v>914.32735845675347</v>
+      </c>
+      <c r="C60" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="B57" s="17"/>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="B58" s="13"/>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B59" s="18"/>
-      <c r="C59" s="11"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
-        <v>56</v>
-      </c>
-      <c r="B60" s="17">
-        <v>1000</v>
-      </c>
-      <c r="C60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="B61" s="17">
-        <f>B60*About!A76</f>
-        <v>914.32735845675347</v>
-      </c>
-      <c r="C61" t="s">
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="13"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="13"/>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="13"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" s="13"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" s="13"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66" s="13"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>111</v>
+      </c>
+      <c r="B70" s="17">
+        <v>1695890</v>
+      </c>
+      <c r="C70" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>75</v>
-      </c>
-      <c r="B62" s="13"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
-        <v>76</v>
-      </c>
-      <c r="B63" s="13"/>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>77</v>
-      </c>
-      <c r="B64" s="13"/>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" t="s">
-        <v>78</v>
-      </c>
-      <c r="B65" s="13"/>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B66" s="13"/>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
-        <v>80</v>
-      </c>
-      <c r="B67" s="13"/>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" t="s">
-        <v>111</v>
-      </c>
-      <c r="B71" s="17">
-        <v>1695890</v>
-      </c>
-      <c r="C71" t="s">
-        <v>38</v>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="1" t="s">
-        <v>117</v>
+      <c r="A73" s="14" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="14" t="s">
-        <v>120</v>
+      <c r="A76" t="s">
+        <v>111</v>
+      </c>
+      <c r="B76" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" t="s">
+      <c r="A77" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B77" s="10">
+        <v>30000</v>
+      </c>
+      <c r="C77" t="s">
+        <v>123</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
         <v>111</v>
       </c>
-      <c r="B77" s="25">
-        <v>0.1</v>
-      </c>
-      <c r="C77" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="14" t="s">
-        <v>122</v>
-      </c>
       <c r="B78" s="10">
-        <v>30000</v>
+        <f>B76*B77</f>
+        <v>3000</v>
       </c>
       <c r="C78" t="s">
-        <v>123</v>
-      </c>
-      <c r="D78" s="14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" t="s">
-        <v>111</v>
-      </c>
-      <c r="B79" s="10">
-        <f>B77*B78</f>
-        <v>3000</v>
-      </c>
-      <c r="C79" t="s">
         <v>38</v>
       </c>
     </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+    </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
+      <c r="B84" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="B85" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>109</v>
+      <c r="A85" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" s="20">
+        <f>B20</f>
+        <v>656.31362430473212</v>
+      </c>
+      <c r="C85" s="20">
+        <f>B21</f>
+        <v>344.72326776048766</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B86" s="20">
-        <f>B20</f>
-        <v>656.31362430473212</v>
+        <f>B32</f>
+        <v>2482.986689554888</v>
       </c>
       <c r="C86" s="20">
-        <f>B21</f>
-        <v>344.72326776048766</v>
+        <f>B33</f>
+        <v>1950.9181132216977</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B87" s="20">
-        <f>B33</f>
-        <v>2482.986689554888</v>
-      </c>
-      <c r="C87" s="20">
-        <f>B34</f>
-        <v>1950.9181132216977</v>
+        <f>B40</f>
+        <v>2279318.9754813975</v>
+      </c>
+      <c r="C87" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B88" s="20">
-        <f>B41</f>
-        <v>2279318.9754813975</v>
-      </c>
-      <c r="C88" t="e">
+        <f>B54</f>
+        <v>3332119.6733545554</v>
+      </c>
+      <c r="C88" s="20">
+        <f>B55</f>
+        <v>2434118.0622207024</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" s="20">
+        <f>B78</f>
+        <v>3000</v>
+      </c>
+      <c r="C89" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B89" s="20">
-        <f>B55</f>
-        <v>3332119.6733545554</v>
-      </c>
-      <c r="C89" s="20">
-        <f>B56</f>
-        <v>2434118.0622207024</v>
-      </c>
-    </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B90" s="20">
-        <f>B79</f>
-        <v>3000</v>
-      </c>
-      <c r="C90" t="e">
+        <f>B60</f>
+        <v>914.32735845675347</v>
+      </c>
+      <c r="C90" s="21">
+        <f>B90*(C85/B85)</f>
+        <v>480.24283381885334</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="B93" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B94" s="20">
+        <f>B85</f>
+        <v>656.31362430473212</v>
+      </c>
+      <c r="C94" s="20">
+        <f>C85</f>
+        <v>344.72326776048766</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95" s="20">
+        <f>B24</f>
+        <v>15000</v>
+      </c>
+      <c r="C95" s="21">
+        <f>B95*(C86/B86)</f>
+        <v>11785.714285714286</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" s="20">
+        <f>B87</f>
+        <v>2279318.9754813975</v>
+      </c>
+      <c r="C96" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B91" s="20">
-        <f>B61</f>
-        <v>914.32735845675347</v>
-      </c>
-      <c r="C91" s="21">
-        <f>B91*(C86/B86)</f>
-        <v>480.24283381885334</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B93" s="16"/>
-      <c r="C93" s="16"/>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="B94" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B95" s="20">
-        <f>B86</f>
-        <v>656.31362430473212</v>
-      </c>
-      <c r="C95" s="20">
-        <f>C86</f>
-        <v>344.72326776048766</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B96" s="20">
-        <f>B24</f>
-        <v>15000</v>
-      </c>
-      <c r="C96" s="21">
-        <f>B96*(C87/B87)</f>
-        <v>11785.714285714286</v>
-      </c>
-    </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B97" s="20">
-        <f>B88</f>
-        <v>2279318.9754813975</v>
-      </c>
-      <c r="C97" t="e">
+        <f>B54</f>
+        <v>3332119.6733545554</v>
+      </c>
+      <c r="C97" s="20">
+        <f>B55</f>
+        <v>2434118.0622207024</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" s="20">
+        <f>B70</f>
+        <v>1695890</v>
+      </c>
+      <c r="C98" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B98" s="20">
-        <f>B55</f>
-        <v>3332119.6733545554</v>
-      </c>
-      <c r="C98" s="20">
-        <f>B56</f>
-        <v>2434118.0622207024</v>
-      </c>
-    </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B99" s="20">
-        <f>B71</f>
-        <v>1695890</v>
-      </c>
-      <c r="C99" t="e">
+        <v>7</v>
+      </c>
+      <c r="B99" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B100" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C100" t="e">
+      <c r="C99" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -3093,7 +3023,7 @@
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{DEA7D659-12AB-4A56-889B-D770D6477AD9}"/>
     <hyperlink ref="B13" r:id="rId2" xr:uid="{83856772-5164-484D-9C39-5E905DAB68CE}"/>
-    <hyperlink ref="A66" r:id="rId3" xr:uid="{CF3217FC-13DF-41C0-A64F-4474765B54A2}"/>
+    <hyperlink ref="A65" r:id="rId3" xr:uid="{CF3217FC-13DF-41C0-A64F-4474765B54A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -3150,31 +3080,31 @@
         <v>2</v>
       </c>
       <c r="B2" s="5">
-        <f>'Cost Data'!$C86</f>
+        <f>'Cost Data'!$C85</f>
         <v>344.72326776048766</v>
       </c>
       <c r="C2" s="5">
-        <f>'Cost Data'!$B86</f>
+        <f>'Cost Data'!$B85</f>
         <v>656.31362430473212</v>
       </c>
       <c r="D2" s="5">
-        <f>'Cost Data'!$B86</f>
+        <f>'Cost Data'!$B85</f>
         <v>656.31362430473212</v>
       </c>
       <c r="E2" s="5">
-        <f>'Cost Data'!$B86</f>
+        <f>'Cost Data'!$B85</f>
         <v>656.31362430473212</v>
       </c>
       <c r="F2" s="5">
-        <f>'Cost Data'!$B86</f>
+        <f>'Cost Data'!$B85</f>
         <v>656.31362430473212</v>
       </c>
       <c r="G2" s="5">
-        <f>'Cost Data'!$B86</f>
+        <f>'Cost Data'!$B85</f>
         <v>656.31362430473212</v>
       </c>
       <c r="H2" s="5">
-        <f>'Cost Data'!$C86</f>
+        <f>'Cost Data'!$C85</f>
         <v>344.72326776048766</v>
       </c>
     </row>
@@ -3183,31 +3113,31 @@
         <v>3</v>
       </c>
       <c r="B3" s="5">
-        <f>'Cost Data'!$C87</f>
+        <f>'Cost Data'!$C86</f>
         <v>1950.9181132216977</v>
       </c>
       <c r="C3" s="5">
-        <f>'Cost Data'!$B87</f>
+        <f>'Cost Data'!$B86</f>
         <v>2482.986689554888</v>
       </c>
       <c r="D3" s="5">
-        <f>'Cost Data'!$B87</f>
+        <f>'Cost Data'!$B86</f>
         <v>2482.986689554888</v>
       </c>
       <c r="E3" s="5">
-        <f>'Cost Data'!$B87</f>
+        <f>'Cost Data'!$B86</f>
         <v>2482.986689554888</v>
       </c>
       <c r="F3" s="5">
-        <f>'Cost Data'!$B87</f>
+        <f>'Cost Data'!$B86</f>
         <v>2482.986689554888</v>
       </c>
       <c r="G3" s="5">
-        <f>'Cost Data'!$B87</f>
+        <f>'Cost Data'!$B86</f>
         <v>2482.986689554888</v>
       </c>
       <c r="H3" s="5">
-        <f>'Cost Data'!$C87</f>
+        <f>'Cost Data'!$C86</f>
         <v>1950.9181132216977</v>
       </c>
     </row>
@@ -3219,23 +3149,23 @@
         <v>0</v>
       </c>
       <c r="C4" s="5">
-        <f>'Cost Data'!$B88</f>
+        <f>'Cost Data'!$B87</f>
         <v>2279318.9754813975</v>
       </c>
       <c r="D4" s="5">
-        <f>'Cost Data'!$B88</f>
+        <f>'Cost Data'!$B87</f>
         <v>2279318.9754813975</v>
       </c>
       <c r="E4" s="5">
-        <f>'Cost Data'!$B88</f>
+        <f>'Cost Data'!$B87</f>
         <v>2279318.9754813975</v>
       </c>
       <c r="F4" s="5">
-        <f>'Cost Data'!$B88</f>
+        <f>'Cost Data'!$B87</f>
         <v>2279318.9754813975</v>
       </c>
       <c r="G4" s="5">
-        <f>'Cost Data'!$B88</f>
+        <f>'Cost Data'!$B87</f>
         <v>2279318.9754813975</v>
       </c>
       <c r="H4" s="26">
@@ -3247,31 +3177,31 @@
         <v>5</v>
       </c>
       <c r="B5" s="5">
-        <f>'Cost Data'!$C89</f>
+        <f>'Cost Data'!$C88</f>
         <v>2434118.0622207024</v>
       </c>
       <c r="C5" s="5">
-        <f>'Cost Data'!$B89</f>
+        <f>'Cost Data'!$B88</f>
         <v>3332119.6733545554</v>
       </c>
       <c r="D5" s="5">
-        <f>'Cost Data'!$B89</f>
+        <f>'Cost Data'!$B88</f>
         <v>3332119.6733545554</v>
       </c>
       <c r="E5" s="5">
-        <f>'Cost Data'!$B89</f>
+        <f>'Cost Data'!$B88</f>
         <v>3332119.6733545554</v>
       </c>
       <c r="F5" s="5">
-        <f>'Cost Data'!$B89</f>
+        <f>'Cost Data'!$B88</f>
         <v>3332119.6733545554</v>
       </c>
       <c r="G5" s="5">
-        <f>'Cost Data'!$B89</f>
+        <f>'Cost Data'!$B88</f>
         <v>3332119.6733545554</v>
       </c>
       <c r="H5" s="5">
-        <f>'Cost Data'!$C89</f>
+        <f>'Cost Data'!$C88</f>
         <v>2434118.0622207024</v>
       </c>
     </row>
@@ -3283,23 +3213,23 @@
         <v>0</v>
       </c>
       <c r="C6" s="5">
-        <f>'Cost Data'!$B90</f>
+        <f>'Cost Data'!$B89</f>
         <v>3000</v>
       </c>
       <c r="D6" s="5">
-        <f>'Cost Data'!$B90</f>
+        <f>'Cost Data'!$B89</f>
         <v>3000</v>
       </c>
       <c r="E6" s="5">
-        <f>'Cost Data'!$B90</f>
+        <f>'Cost Data'!$B89</f>
         <v>3000</v>
       </c>
       <c r="F6" s="5">
-        <f>'Cost Data'!$B90</f>
+        <f>'Cost Data'!$B89</f>
         <v>3000</v>
       </c>
       <c r="G6" s="5">
-        <f>'Cost Data'!$B90</f>
+        <f>'Cost Data'!$B89</f>
         <v>3000</v>
       </c>
       <c r="H6" s="26">
@@ -3311,31 +3241,31 @@
         <v>7</v>
       </c>
       <c r="B7" s="5">
-        <f>'Cost Data'!$C91</f>
+        <f>'Cost Data'!$C90</f>
         <v>480.24283381885334</v>
       </c>
       <c r="C7" s="5">
-        <f>'Cost Data'!$B91</f>
+        <f>'Cost Data'!$B90</f>
         <v>914.32735845675347</v>
       </c>
       <c r="D7" s="5">
-        <f>'Cost Data'!$B91</f>
+        <f>'Cost Data'!$B90</f>
         <v>914.32735845675347</v>
       </c>
       <c r="E7" s="5">
-        <f>'Cost Data'!$B91</f>
+        <f>'Cost Data'!$B90</f>
         <v>914.32735845675347</v>
       </c>
       <c r="F7" s="5">
-        <f>'Cost Data'!$B91</f>
+        <f>'Cost Data'!$B90</f>
         <v>914.32735845675347</v>
       </c>
       <c r="G7" s="5">
-        <f>'Cost Data'!$B91</f>
+        <f>'Cost Data'!$B90</f>
         <v>914.32735845675347</v>
       </c>
       <c r="H7" s="5">
-        <f>'Cost Data'!$C91</f>
+        <f>'Cost Data'!$C90</f>
         <v>480.24283381885334</v>
       </c>
     </row>
@@ -3364,9 +3294,7 @@
   </sheetPr>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="A1:H7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3409,31 +3337,31 @@
         <v>2</v>
       </c>
       <c r="B2" s="6">
-        <f>'Cost Data'!$C95</f>
+        <f>'Cost Data'!$C94</f>
         <v>344.72326776048766</v>
       </c>
       <c r="C2" s="6">
-        <f>'Cost Data'!$B95</f>
+        <f>'Cost Data'!$B94</f>
         <v>656.31362430473212</v>
       </c>
       <c r="D2" s="6">
-        <f>'Cost Data'!$B95</f>
+        <f>'Cost Data'!$B94</f>
         <v>656.31362430473212</v>
       </c>
       <c r="E2" s="6">
-        <f>'Cost Data'!$B95</f>
+        <f>'Cost Data'!$B94</f>
         <v>656.31362430473212</v>
       </c>
       <c r="F2" s="6">
-        <f>'Cost Data'!$B95</f>
+        <f>'Cost Data'!$B94</f>
         <v>656.31362430473212</v>
       </c>
       <c r="G2" s="6">
-        <f>'Cost Data'!$B95</f>
+        <f>'Cost Data'!$B94</f>
         <v>656.31362430473212</v>
       </c>
       <c r="H2" s="6">
-        <f>'Cost Data'!$C95</f>
+        <f>'Cost Data'!$C94</f>
         <v>344.72326776048766</v>
       </c>
     </row>
@@ -3442,31 +3370,31 @@
         <v>3</v>
       </c>
       <c r="B3" s="6">
-        <f>'Cost Data'!B25</f>
-        <v>17878.571428571428</v>
+        <f>'Cost Data'!$C95</f>
+        <v>11785.714285714286</v>
       </c>
       <c r="C3" s="6">
-        <f>'Cost Data'!$B96</f>
+        <f>'Cost Data'!$B95</f>
         <v>15000</v>
       </c>
       <c r="D3" s="6">
-        <f>'Cost Data'!$B96</f>
+        <f>'Cost Data'!$B95</f>
         <v>15000</v>
       </c>
       <c r="E3" s="6">
-        <f>'Cost Data'!$B96</f>
+        <f>'Cost Data'!$B95</f>
         <v>15000</v>
       </c>
       <c r="F3" s="6">
-        <f>'Cost Data'!$B96</f>
+        <f>'Cost Data'!$B95</f>
         <v>15000</v>
       </c>
       <c r="G3" s="6">
-        <f>'Cost Data'!$B96</f>
+        <f>'Cost Data'!$B95</f>
         <v>15000</v>
       </c>
       <c r="H3" s="6">
-        <f>'Cost Data'!$C96</f>
+        <f>'Cost Data'!$C95</f>
         <v>11785.714285714286</v>
       </c>
     </row>
@@ -3478,23 +3406,23 @@
         <v>0</v>
       </c>
       <c r="C4" s="6">
-        <f>'Cost Data'!$B97</f>
+        <f>'Cost Data'!$B96</f>
         <v>2279318.9754813975</v>
       </c>
       <c r="D4" s="6">
-        <f>'Cost Data'!$B97</f>
+        <f>'Cost Data'!$B96</f>
         <v>2279318.9754813975</v>
       </c>
       <c r="E4" s="6">
-        <f>'Cost Data'!$B97</f>
+        <f>'Cost Data'!$B96</f>
         <v>2279318.9754813975</v>
       </c>
       <c r="F4" s="6">
-        <f>'Cost Data'!$B97</f>
+        <f>'Cost Data'!$B96</f>
         <v>2279318.9754813975</v>
       </c>
       <c r="G4" s="6">
-        <f>'Cost Data'!$B97</f>
+        <f>'Cost Data'!$B96</f>
         <v>2279318.9754813975</v>
       </c>
       <c r="H4" s="26">
@@ -3506,31 +3434,31 @@
         <v>5</v>
       </c>
       <c r="B5" s="6">
-        <f>'Cost Data'!$C98</f>
+        <f>'Cost Data'!$C97</f>
         <v>2434118.0622207024</v>
       </c>
       <c r="C5" s="6">
-        <f>'Cost Data'!$B98</f>
+        <f>'Cost Data'!$B97</f>
         <v>3332119.6733545554</v>
       </c>
       <c r="D5" s="6">
-        <f>'Cost Data'!$B98</f>
+        <f>'Cost Data'!$B97</f>
         <v>3332119.6733545554</v>
       </c>
       <c r="E5" s="6">
-        <f>'Cost Data'!$B98</f>
+        <f>'Cost Data'!$B97</f>
         <v>3332119.6733545554</v>
       </c>
       <c r="F5" s="6">
-        <f>'Cost Data'!$B98</f>
+        <f>'Cost Data'!$B97</f>
         <v>3332119.6733545554</v>
       </c>
       <c r="G5" s="6">
-        <f>'Cost Data'!$B98</f>
+        <f>'Cost Data'!$B97</f>
         <v>3332119.6733545554</v>
       </c>
       <c r="H5" s="6">
-        <f>'Cost Data'!$C98</f>
+        <f>'Cost Data'!$C97</f>
         <v>2434118.0622207024</v>
       </c>
     </row>
@@ -3542,23 +3470,23 @@
         <v>0</v>
       </c>
       <c r="C6" s="6">
-        <f>'Cost Data'!$B99</f>
+        <f>'Cost Data'!$B98</f>
         <v>1695890</v>
       </c>
       <c r="D6" s="6">
-        <f>'Cost Data'!$B99</f>
+        <f>'Cost Data'!$B98</f>
         <v>1695890</v>
       </c>
       <c r="E6" s="6">
-        <f>'Cost Data'!$B99</f>
+        <f>'Cost Data'!$B98</f>
         <v>1695890</v>
       </c>
       <c r="F6" s="6">
-        <f>'Cost Data'!$B99</f>
+        <f>'Cost Data'!$B98</f>
         <v>1695890</v>
       </c>
       <c r="G6" s="6">
-        <f>'Cost Data'!$B99</f>
+        <f>'Cost Data'!$B98</f>
         <v>1695890</v>
       </c>
       <c r="H6" s="26">

--- a/InputData/trans/AVMC/Annual Vehicle Maint Cost.xlsx
+++ b/InputData/trans/AVMC/Annual Vehicle Maint Cost.xlsx
@@ -1,25 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-us-analysis\InputData\trans\AVMC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\AVMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B3C505-ECAA-49CA-9672-DF5CF56F78F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354E2386-ABE2-4A8F-9CE3-0B5B103FA882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="Cost Data" sheetId="16" r:id="rId2"/>
-    <sheet name="AVMC-passenger" sheetId="2" r:id="rId3"/>
-    <sheet name="AVMC-freight" sheetId="4" r:id="rId4"/>
+    <sheet name="LDVs" sheetId="18" r:id="rId2"/>
+    <sheet name="Cost Data" sheetId="16" r:id="rId3"/>
+    <sheet name="BAADTbVT-passengers" sheetId="17" r:id="rId4"/>
+    <sheet name="BAADTbVT-freight" sheetId="19" r:id="rId5"/>
+    <sheet name="AVMC-passenger" sheetId="2" r:id="rId6"/>
+    <sheet name="AVMC-freight" sheetId="4" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="Eno_TM">'[1]1997  Table 1a Modified'!#REF!</definedName>
@@ -44,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="143">
   <si>
     <t>Sources:</t>
   </si>
@@ -94,24 +98,9 @@
     <t>$/year</t>
   </si>
   <si>
-    <t>Page 12, Figure 7</t>
-  </si>
-  <si>
-    <t>https://www.2degreesinstitute.org/reports/comparing_fuel_and_maintenance_costs_of_electric_and_gas_powered_vehicles_in_canada.pdf</t>
-  </si>
-  <si>
-    <t>Comparing Fuel and Maintenance Costs of Electric and Gas Powered Vehiclesin Canada</t>
-  </si>
-  <si>
-    <t>2 Degrees Institute</t>
-  </si>
-  <si>
     <t>ICE</t>
   </si>
   <si>
-    <t>2018 CAD/yr</t>
-  </si>
-  <si>
     <t>BEV</t>
   </si>
   <si>
@@ -121,9 +110,6 @@
     <t>https://www.energy.gov/eere/electricvehicles/electric-car-safety-maintenance-and-battery-life</t>
   </si>
   <si>
-    <t>LDVs (ICE and BEV)</t>
-  </si>
-  <si>
     <t>Overall Assumptions</t>
   </si>
   <si>
@@ -464,15 +450,41 @@
   </si>
   <si>
     <t>LBNL: Includes annual ongoing mainteance and annualized battery replacement every 7 years over a 28 year life</t>
+  </si>
+  <si>
+    <t>Annual Distance (miles/vehicle)</t>
+  </si>
+  <si>
+    <t>PHEV</t>
+  </si>
+  <si>
+    <t>2012$/mile</t>
+  </si>
+  <si>
+    <t>2011 USD per 2021 USD</t>
+  </si>
+  <si>
+    <t>Department of Energy Vehicle Technologies Office</t>
+  </si>
+  <si>
+    <t>Battery-Electric Vehicles Have Lower Scheduled Maintenance Costs than Other Light-Duty Vehicles</t>
+  </si>
+  <si>
+    <t>https://www.energy.gov/eere/vehicles/articles/fotw-1190-june-14-2021-battery-electric-vehicles-have-lower-scheduled</t>
+  </si>
+  <si>
+    <t>Annual Costs - passenger</t>
+  </si>
+  <si>
+    <t>Annual Costs - freight</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
+  <numFmts count="8">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="###0.00_)"/>
@@ -481,7 +493,7 @@
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -730,6 +742,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1314,7 +1332,6 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="140"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1330,6 +1347,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="140" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="141">
     <cellStyle name="20% - Accent1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1487,6 +1507,55 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552094</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92E4EDB1-786D-F5B5-C034-017B77AC456A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25400" y="0"/>
+          <a:ext cx="5403494" cy="4229100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -1563,6 +1632,1227 @@
       <sheetData sheetId="32"/>
       <sheetData sheetId="33"/>
       <sheetData sheetId="34"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="About"/>
+      <sheetName val="SYVbT-passenger"/>
+      <sheetName val="SYVbT-freight"/>
+      <sheetName val="AVLo-passengers"/>
+      <sheetName val="AVLo-freight"/>
+      <sheetName val="AEO 7"/>
+      <sheetName val="AEO 46"/>
+      <sheetName val="AEO 47"/>
+      <sheetName val="AEO 49"/>
+      <sheetName val="NHTSA Motorbikes"/>
+      <sheetName val="NTS 1-40"/>
+      <sheetName val="NRBS 40"/>
+      <sheetName val="BAADTbVT-passengers"/>
+      <sheetName val="BAADTbVT-freight"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="35">
+          <cell r="B35">
+            <v>2019</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="B2">
+            <v>84.000000000000014</v>
+          </cell>
+          <cell r="C2">
+            <v>14866.598</v>
+          </cell>
+          <cell r="D2">
+            <v>11972117.539999999</v>
+          </cell>
+          <cell r="E2">
+            <v>9818361.2930000015</v>
+          </cell>
+          <cell r="F2">
+            <v>0</v>
+          </cell>
+          <cell r="G2">
+            <v>5402.8509999999997</v>
+          </cell>
+          <cell r="H2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>0</v>
+          </cell>
+          <cell r="C3">
+            <v>43170</v>
+          </cell>
+          <cell r="D3">
+            <v>49465</v>
+          </cell>
+          <cell r="E3">
+            <v>4968137</v>
+          </cell>
+          <cell r="F3">
+            <v>202</v>
+          </cell>
+          <cell r="G3">
+            <v>4008.0000000000005</v>
+          </cell>
+          <cell r="H3">
+            <v>114</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4">
+            <v>895.49011199999995</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>26052.44378698225</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>10110</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="4">
+          <cell r="B4">
+            <v>41.989116133258747</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5">
+            <v>3512.35916421195</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>1974.4736422180429</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="13">
+          <cell r="B13" t="str">
+            <v xml:space="preserve"> Key Indicators and Consumption</v>
+          </cell>
+          <cell r="C13">
+            <v>2019</v>
+          </cell>
+          <cell r="D13">
+            <v>2020</v>
+          </cell>
+          <cell r="E13">
+            <v>2021</v>
+          </cell>
+          <cell r="F13">
+            <v>2022</v>
+          </cell>
+          <cell r="G13">
+            <v>2023</v>
+          </cell>
+          <cell r="H13">
+            <v>2024</v>
+          </cell>
+          <cell r="I13">
+            <v>2025</v>
+          </cell>
+          <cell r="J13">
+            <v>2026</v>
+          </cell>
+          <cell r="K13">
+            <v>2027</v>
+          </cell>
+          <cell r="L13">
+            <v>2028</v>
+          </cell>
+          <cell r="M13">
+            <v>2029</v>
+          </cell>
+          <cell r="N13">
+            <v>2030</v>
+          </cell>
+          <cell r="O13">
+            <v>2031</v>
+          </cell>
+          <cell r="P13">
+            <v>2032</v>
+          </cell>
+          <cell r="Q13">
+            <v>2033</v>
+          </cell>
+          <cell r="R13">
+            <v>2034</v>
+          </cell>
+          <cell r="S13">
+            <v>2035</v>
+          </cell>
+          <cell r="T13">
+            <v>2036</v>
+          </cell>
+          <cell r="U13">
+            <v>2037</v>
+          </cell>
+          <cell r="V13">
+            <v>2038</v>
+          </cell>
+          <cell r="W13">
+            <v>2039</v>
+          </cell>
+          <cell r="X13">
+            <v>2040</v>
+          </cell>
+          <cell r="Y13">
+            <v>2041</v>
+          </cell>
+          <cell r="Z13">
+            <v>2042</v>
+          </cell>
+          <cell r="AA13">
+            <v>2043</v>
+          </cell>
+          <cell r="AB13">
+            <v>2044</v>
+          </cell>
+          <cell r="AC13">
+            <v>2045</v>
+          </cell>
+          <cell r="AD13">
+            <v>2046</v>
+          </cell>
+          <cell r="AE13">
+            <v>2047</v>
+          </cell>
+          <cell r="AF13">
+            <v>2048</v>
+          </cell>
+          <cell r="AG13">
+            <v>2049</v>
+          </cell>
+          <cell r="AH13">
+            <v>2050</v>
+          </cell>
+          <cell r="AI13">
+            <v>2050</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>TKI000:ba_CommercialLig</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v xml:space="preserve">   Commercial Light Trucks 1/</v>
+          </cell>
+          <cell r="C19">
+            <v>99.321113999999994</v>
+          </cell>
+          <cell r="D19">
+            <v>100.61537199999999</v>
+          </cell>
+          <cell r="E19">
+            <v>102.27555099999999</v>
+          </cell>
+          <cell r="F19">
+            <v>103.794495</v>
+          </cell>
+          <cell r="G19">
+            <v>104.99791</v>
+          </cell>
+          <cell r="H19">
+            <v>105.845024</v>
+          </cell>
+          <cell r="I19">
+            <v>106.78964999999999</v>
+          </cell>
+          <cell r="J19">
+            <v>107.83586099999999</v>
+          </cell>
+          <cell r="K19">
+            <v>109.086189</v>
+          </cell>
+          <cell r="L19">
+            <v>110.314789</v>
+          </cell>
+          <cell r="M19">
+            <v>111.61691999999999</v>
+          </cell>
+          <cell r="N19">
+            <v>112.770866</v>
+          </cell>
+          <cell r="O19">
+            <v>114.262428</v>
+          </cell>
+          <cell r="P19">
+            <v>115.52301</v>
+          </cell>
+          <cell r="Q19">
+            <v>116.879272</v>
+          </cell>
+          <cell r="R19">
+            <v>118.14617200000001</v>
+          </cell>
+          <cell r="S19">
+            <v>119.40303</v>
+          </cell>
+          <cell r="T19">
+            <v>120.80527499999999</v>
+          </cell>
+          <cell r="U19">
+            <v>122.152451</v>
+          </cell>
+          <cell r="V19">
+            <v>123.496872</v>
+          </cell>
+          <cell r="W19">
+            <v>124.85643</v>
+          </cell>
+          <cell r="X19">
+            <v>126.275398</v>
+          </cell>
+          <cell r="Y19">
+            <v>127.716537</v>
+          </cell>
+          <cell r="Z19">
+            <v>129.18461600000001</v>
+          </cell>
+          <cell r="AA19">
+            <v>130.70700099999999</v>
+          </cell>
+          <cell r="AB19">
+            <v>132.37408400000001</v>
+          </cell>
+          <cell r="AC19">
+            <v>134.19018600000001</v>
+          </cell>
+          <cell r="AD19">
+            <v>136.27534499999999</v>
+          </cell>
+          <cell r="AE19">
+            <v>138.142303</v>
+          </cell>
+          <cell r="AF19">
+            <v>140.203461</v>
+          </cell>
+          <cell r="AG19">
+            <v>142.34049999999999</v>
+          </cell>
+          <cell r="AH19">
+            <v>144.479523</v>
+          </cell>
+          <cell r="AI19">
+            <v>1.2163E-2</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>TKI000:ba_Rail</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v xml:space="preserve">   Rail</v>
+          </cell>
+          <cell r="C27">
+            <v>1807.96228</v>
+          </cell>
+          <cell r="D27">
+            <v>1730.8404539999999</v>
+          </cell>
+          <cell r="E27">
+            <v>1660.033447</v>
+          </cell>
+          <cell r="F27">
+            <v>1651.259399</v>
+          </cell>
+          <cell r="G27">
+            <v>1652.7242429999999</v>
+          </cell>
+          <cell r="H27">
+            <v>1638.4692379999999</v>
+          </cell>
+          <cell r="I27">
+            <v>1604.7768550000001</v>
+          </cell>
+          <cell r="J27">
+            <v>1643.9995120000001</v>
+          </cell>
+          <cell r="K27">
+            <v>1652.7871090000001</v>
+          </cell>
+          <cell r="L27">
+            <v>1662.7436520000001</v>
+          </cell>
+          <cell r="M27">
+            <v>1655.604004</v>
+          </cell>
+          <cell r="N27">
+            <v>1648.302124</v>
+          </cell>
+          <cell r="O27">
+            <v>1654.8007809999999</v>
+          </cell>
+          <cell r="P27">
+            <v>1663.8508300000001</v>
+          </cell>
+          <cell r="Q27">
+            <v>1673.9210210000001</v>
+          </cell>
+          <cell r="R27">
+            <v>1684.4979249999999</v>
+          </cell>
+          <cell r="S27">
+            <v>1686.8079829999999</v>
+          </cell>
+          <cell r="T27">
+            <v>1698.2738039999999</v>
+          </cell>
+          <cell r="U27">
+            <v>1704.6904300000001</v>
+          </cell>
+          <cell r="V27">
+            <v>1701.2554929999999</v>
+          </cell>
+          <cell r="W27">
+            <v>1711.9681399999999</v>
+          </cell>
+          <cell r="X27">
+            <v>1715.1282960000001</v>
+          </cell>
+          <cell r="Y27">
+            <v>1722.2583010000001</v>
+          </cell>
+          <cell r="Z27">
+            <v>1735.240356</v>
+          </cell>
+          <cell r="AA27">
+            <v>1747.2885739999999</v>
+          </cell>
+          <cell r="AB27">
+            <v>1760.9610600000001</v>
+          </cell>
+          <cell r="AC27">
+            <v>1777.279663</v>
+          </cell>
+          <cell r="AD27">
+            <v>1802.0692140000001</v>
+          </cell>
+          <cell r="AE27">
+            <v>1818.081543</v>
+          </cell>
+          <cell r="AF27">
+            <v>1839.2490230000001</v>
+          </cell>
+          <cell r="AG27">
+            <v>1861.996948</v>
+          </cell>
+          <cell r="AH27">
+            <v>1888.5421140000001</v>
+          </cell>
+          <cell r="AI27">
+            <v>1.408E-3</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>TKI000:ba_DomesticShipp</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v xml:space="preserve">   Domestic Shipping</v>
+          </cell>
+          <cell r="C28">
+            <v>416.68075599999997</v>
+          </cell>
+          <cell r="D28">
+            <v>409.15490699999998</v>
+          </cell>
+          <cell r="E28">
+            <v>404.529877</v>
+          </cell>
+          <cell r="F28">
+            <v>396.47796599999998</v>
+          </cell>
+          <cell r="G28">
+            <v>388.98980699999998</v>
+          </cell>
+          <cell r="H28">
+            <v>379.45697000000001</v>
+          </cell>
+          <cell r="I28">
+            <v>370.07324199999999</v>
+          </cell>
+          <cell r="J28">
+            <v>361.44610599999999</v>
+          </cell>
+          <cell r="K28">
+            <v>352.76406900000001</v>
+          </cell>
+          <cell r="L28">
+            <v>343.56066900000002</v>
+          </cell>
+          <cell r="M28">
+            <v>333.81878699999999</v>
+          </cell>
+          <cell r="N28">
+            <v>323.794983</v>
+          </cell>
+          <cell r="O28">
+            <v>320.25204500000001</v>
+          </cell>
+          <cell r="P28">
+            <v>316.14532500000001</v>
+          </cell>
+          <cell r="Q28">
+            <v>312.65210000000002</v>
+          </cell>
+          <cell r="R28">
+            <v>308.385468</v>
+          </cell>
+          <cell r="S28">
+            <v>304.23715199999998</v>
+          </cell>
+          <cell r="T28">
+            <v>300.63772599999999</v>
+          </cell>
+          <cell r="U28">
+            <v>296.55325299999998</v>
+          </cell>
+          <cell r="V28">
+            <v>292.41882299999997</v>
+          </cell>
+          <cell r="W28">
+            <v>288.76394699999997</v>
+          </cell>
+          <cell r="X28">
+            <v>284.95684799999998</v>
+          </cell>
+          <cell r="Y28">
+            <v>283.66168199999998</v>
+          </cell>
+          <cell r="Z28">
+            <v>282.64859000000001</v>
+          </cell>
+          <cell r="AA28">
+            <v>281.33288599999997</v>
+          </cell>
+          <cell r="AB28">
+            <v>280.511841</v>
+          </cell>
+          <cell r="AC28">
+            <v>279.87280299999998</v>
+          </cell>
+          <cell r="AD28">
+            <v>280.18786599999999</v>
+          </cell>
+          <cell r="AE28">
+            <v>279.40164199999998</v>
+          </cell>
+          <cell r="AF28">
+            <v>279.350281</v>
+          </cell>
+          <cell r="AG28">
+            <v>279.69216899999998</v>
+          </cell>
+          <cell r="AH28">
+            <v>280.25091600000002</v>
+          </cell>
+          <cell r="AI28">
+            <v>-1.2713E-2</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="C62">
+            <v>8.9409000000000002E-2</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="C63">
+            <v>0.92732700000000001</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
+        <row r="1">
+          <cell r="E1">
+            <v>2019</v>
+          </cell>
+          <cell r="F1">
+            <v>2020</v>
+          </cell>
+          <cell r="G1">
+            <v>2021</v>
+          </cell>
+          <cell r="H1">
+            <v>2022</v>
+          </cell>
+          <cell r="I1">
+            <v>2023</v>
+          </cell>
+          <cell r="J1">
+            <v>2024</v>
+          </cell>
+          <cell r="K1">
+            <v>2025</v>
+          </cell>
+          <cell r="L1">
+            <v>2026</v>
+          </cell>
+          <cell r="M1">
+            <v>2027</v>
+          </cell>
+          <cell r="N1">
+            <v>2028</v>
+          </cell>
+          <cell r="O1">
+            <v>2029</v>
+          </cell>
+          <cell r="P1">
+            <v>2030</v>
+          </cell>
+          <cell r="Q1">
+            <v>2031</v>
+          </cell>
+          <cell r="R1">
+            <v>2032</v>
+          </cell>
+          <cell r="S1">
+            <v>2033</v>
+          </cell>
+          <cell r="T1">
+            <v>2034</v>
+          </cell>
+          <cell r="U1">
+            <v>2035</v>
+          </cell>
+          <cell r="V1">
+            <v>2036</v>
+          </cell>
+          <cell r="W1">
+            <v>2037</v>
+          </cell>
+          <cell r="X1">
+            <v>2038</v>
+          </cell>
+          <cell r="Y1">
+            <v>2039</v>
+          </cell>
+          <cell r="Z1">
+            <v>2040</v>
+          </cell>
+          <cell r="AA1">
+            <v>2041</v>
+          </cell>
+          <cell r="AB1">
+            <v>2042</v>
+          </cell>
+          <cell r="AC1">
+            <v>2043</v>
+          </cell>
+          <cell r="AD1">
+            <v>2044</v>
+          </cell>
+          <cell r="AE1">
+            <v>2045</v>
+          </cell>
+          <cell r="AF1">
+            <v>2046</v>
+          </cell>
+          <cell r="AG1">
+            <v>2047</v>
+          </cell>
+          <cell r="AH1">
+            <v>2048</v>
+          </cell>
+          <cell r="AI1">
+            <v>2049</v>
+          </cell>
+          <cell r="AJ1">
+            <v>2050</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>United States</v>
+          </cell>
+          <cell r="B64" t="str">
+            <v>Air Travel: Travel Demand: Revenue Ton Miles: Freight: US: High oil and gas supply</v>
+          </cell>
+          <cell r="C64" t="str">
+            <v>57-AEO2020.76.highogs-d112619a</v>
+          </cell>
+          <cell r="D64" t="str">
+            <v>billion miles</v>
+          </cell>
+          <cell r="E64">
+            <v>37.599032999999999</v>
+          </cell>
+          <cell r="F64">
+            <v>37.699356000000002</v>
+          </cell>
+          <cell r="G64">
+            <v>36.927132</v>
+          </cell>
+          <cell r="H64">
+            <v>36.703147999999999</v>
+          </cell>
+          <cell r="I64">
+            <v>36.967593999999998</v>
+          </cell>
+          <cell r="J64">
+            <v>37.303066000000001</v>
+          </cell>
+          <cell r="K64">
+            <v>37.611958000000001</v>
+          </cell>
+          <cell r="L64">
+            <v>38.198112000000002</v>
+          </cell>
+          <cell r="M64">
+            <v>38.870167000000002</v>
+          </cell>
+          <cell r="N64">
+            <v>39.352409000000002</v>
+          </cell>
+          <cell r="O64">
+            <v>39.656612000000003</v>
+          </cell>
+          <cell r="P64">
+            <v>39.579884</v>
+          </cell>
+          <cell r="Q64">
+            <v>39.684184999999999</v>
+          </cell>
+          <cell r="R64">
+            <v>39.678477999999998</v>
+          </cell>
+          <cell r="S64">
+            <v>39.665160999999998</v>
+          </cell>
+          <cell r="T64">
+            <v>39.581394000000003</v>
+          </cell>
+          <cell r="U64">
+            <v>39.535313000000002</v>
+          </cell>
+          <cell r="V64">
+            <v>39.462372000000002</v>
+          </cell>
+          <cell r="W64">
+            <v>39.521683000000003</v>
+          </cell>
+          <cell r="X64">
+            <v>39.362358</v>
+          </cell>
+          <cell r="Y64">
+            <v>39.245784999999998</v>
+          </cell>
+          <cell r="Z64">
+            <v>39.187595000000002</v>
+          </cell>
+          <cell r="AA64">
+            <v>39.247580999999997</v>
+          </cell>
+          <cell r="AB64">
+            <v>39.204383999999997</v>
+          </cell>
+          <cell r="AC64">
+            <v>39.167019000000003</v>
+          </cell>
+          <cell r="AD64">
+            <v>39.129683999999997</v>
+          </cell>
+          <cell r="AE64">
+            <v>39.033023999999997</v>
+          </cell>
+          <cell r="AF64">
+            <v>38.955317999999998</v>
+          </cell>
+          <cell r="AG64">
+            <v>38.899033000000003</v>
+          </cell>
+          <cell r="AH64">
+            <v>38.950684000000003</v>
+          </cell>
+          <cell r="AI64">
+            <v>39.015663000000004</v>
+          </cell>
+          <cell r="AJ64">
+            <v>38.854889</v>
+          </cell>
+          <cell r="AK64">
+            <v>1E-3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>full name</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>api key</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>units</v>
+          </cell>
+          <cell r="E5">
+            <v>2019</v>
+          </cell>
+          <cell r="F5">
+            <v>2020</v>
+          </cell>
+          <cell r="G5">
+            <v>2021</v>
+          </cell>
+          <cell r="H5">
+            <v>2022</v>
+          </cell>
+          <cell r="I5">
+            <v>2023</v>
+          </cell>
+          <cell r="J5">
+            <v>2024</v>
+          </cell>
+          <cell r="K5">
+            <v>2025</v>
+          </cell>
+          <cell r="L5">
+            <v>2026</v>
+          </cell>
+          <cell r="M5">
+            <v>2027</v>
+          </cell>
+          <cell r="N5">
+            <v>2028</v>
+          </cell>
+          <cell r="O5">
+            <v>2029</v>
+          </cell>
+          <cell r="P5">
+            <v>2030</v>
+          </cell>
+          <cell r="Q5">
+            <v>2031</v>
+          </cell>
+          <cell r="R5">
+            <v>2032</v>
+          </cell>
+          <cell r="S5">
+            <v>2033</v>
+          </cell>
+          <cell r="T5">
+            <v>2034</v>
+          </cell>
+          <cell r="U5">
+            <v>2035</v>
+          </cell>
+          <cell r="V5">
+            <v>2036</v>
+          </cell>
+          <cell r="W5">
+            <v>2037</v>
+          </cell>
+          <cell r="X5">
+            <v>2038</v>
+          </cell>
+          <cell r="Y5">
+            <v>2039</v>
+          </cell>
+          <cell r="Z5">
+            <v>2040</v>
+          </cell>
+          <cell r="AA5">
+            <v>2041</v>
+          </cell>
+          <cell r="AB5">
+            <v>2042</v>
+          </cell>
+          <cell r="AC5">
+            <v>2043</v>
+          </cell>
+          <cell r="AD5">
+            <v>2044</v>
+          </cell>
+          <cell r="AE5">
+            <v>2045</v>
+          </cell>
+          <cell r="AF5">
+            <v>2046</v>
+          </cell>
+          <cell r="AG5">
+            <v>2047</v>
+          </cell>
+          <cell r="AH5">
+            <v>2048</v>
+          </cell>
+          <cell r="AI5">
+            <v>2049</v>
+          </cell>
+          <cell r="AJ5">
+            <v>2050</v>
+          </cell>
+          <cell r="AK5" t="str">
+            <v>Growth (2019-2050)</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>Light Medium Subtotal</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>Freight: Truck Stock: Vehicle Miles Traveled: Light Medium: High oil and gas supply</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>58-AEO2020.15.highogs-d112619a</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>billion miles</v>
+          </cell>
+          <cell r="E18">
+            <v>62.116385999999999</v>
+          </cell>
+          <cell r="F18">
+            <v>62.943370999999999</v>
+          </cell>
+          <cell r="G18">
+            <v>64.743599000000003</v>
+          </cell>
+          <cell r="H18">
+            <v>65.987815999999995</v>
+          </cell>
+          <cell r="I18">
+            <v>67.351500999999999</v>
+          </cell>
+          <cell r="J18">
+            <v>68.471275000000006</v>
+          </cell>
+          <cell r="K18">
+            <v>69.755111999999997</v>
+          </cell>
+          <cell r="L18">
+            <v>71.038391000000004</v>
+          </cell>
+          <cell r="M18">
+            <v>72.446449000000001</v>
+          </cell>
+          <cell r="N18">
+            <v>73.775642000000005</v>
+          </cell>
+          <cell r="O18">
+            <v>75.160049000000001</v>
+          </cell>
+          <cell r="P18">
+            <v>76.423125999999996</v>
+          </cell>
+          <cell r="Q18">
+            <v>78.130523999999994</v>
+          </cell>
+          <cell r="R18">
+            <v>79.665405000000007</v>
+          </cell>
+          <cell r="S18">
+            <v>81.316840999999997</v>
+          </cell>
+          <cell r="T18">
+            <v>82.870200999999994</v>
+          </cell>
+          <cell r="U18">
+            <v>84.601653999999996</v>
+          </cell>
+          <cell r="V18">
+            <v>86.379333000000003</v>
+          </cell>
+          <cell r="W18">
+            <v>87.914253000000002</v>
+          </cell>
+          <cell r="X18">
+            <v>89.408103999999994</v>
+          </cell>
+          <cell r="Y18">
+            <v>90.855507000000003</v>
+          </cell>
+          <cell r="Z18">
+            <v>92.309944000000002</v>
+          </cell>
+          <cell r="AA18">
+            <v>93.781006000000005</v>
+          </cell>
+          <cell r="AB18">
+            <v>95.266006000000004</v>
+          </cell>
+          <cell r="AC18">
+            <v>96.675811999999993</v>
+          </cell>
+          <cell r="AD18">
+            <v>98.248458999999997</v>
+          </cell>
+          <cell r="AE18">
+            <v>99.922531000000006</v>
+          </cell>
+          <cell r="AF18">
+            <v>101.865318</v>
+          </cell>
+          <cell r="AG18">
+            <v>103.506516</v>
+          </cell>
+          <cell r="AH18">
+            <v>105.487534</v>
+          </cell>
+          <cell r="AI18">
+            <v>107.584824</v>
+          </cell>
+          <cell r="AJ18">
+            <v>109.87376399999999</v>
+          </cell>
+          <cell r="AK18">
+            <v>1.9E-2</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>Medium Subtotal</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>Freight: Truck Stock: Vehicle Miles Traveled: Medium: High oil and gas supply</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>58-AEO2020.26.highogs-d112619a</v>
+          </cell>
+          <cell r="D29" t="str">
+            <v>billion miles</v>
+          </cell>
+          <cell r="E29">
+            <v>54.603447000000003</v>
+          </cell>
+          <cell r="F29">
+            <v>54.781798999999999</v>
+          </cell>
+          <cell r="G29">
+            <v>55.515346999999998</v>
+          </cell>
+          <cell r="H29">
+            <v>56.481617</v>
+          </cell>
+          <cell r="I29">
+            <v>57.581673000000002</v>
+          </cell>
+          <cell r="J29">
+            <v>58.430546</v>
+          </cell>
+          <cell r="K29">
+            <v>59.386108</v>
+          </cell>
+          <cell r="L29">
+            <v>60.457507999999997</v>
+          </cell>
+          <cell r="M29">
+            <v>61.768149999999999</v>
+          </cell>
+          <cell r="N29">
+            <v>63.112183000000002</v>
+          </cell>
+          <cell r="O29">
+            <v>64.546806000000004</v>
+          </cell>
+          <cell r="P29">
+            <v>65.847083999999995</v>
+          </cell>
+          <cell r="Q29">
+            <v>67.496689000000003</v>
+          </cell>
+          <cell r="R29">
+            <v>69.079162999999994</v>
+          </cell>
+          <cell r="S29">
+            <v>70.779044999999996</v>
+          </cell>
+          <cell r="T29">
+            <v>72.377150999999998</v>
+          </cell>
+          <cell r="U29">
+            <v>74.105148</v>
+          </cell>
+          <cell r="V29">
+            <v>75.981803999999997</v>
+          </cell>
+          <cell r="W29">
+            <v>77.792572000000007</v>
+          </cell>
+          <cell r="X29">
+            <v>79.667381000000006</v>
+          </cell>
+          <cell r="Y29">
+            <v>81.581305999999998</v>
+          </cell>
+          <cell r="Z29">
+            <v>83.595695000000006</v>
+          </cell>
+          <cell r="AA29">
+            <v>85.681190000000001</v>
+          </cell>
+          <cell r="AB29">
+            <v>87.862358</v>
+          </cell>
+          <cell r="AC29">
+            <v>90.121964000000006</v>
+          </cell>
+          <cell r="AD29">
+            <v>92.640227999999993</v>
+          </cell>
+          <cell r="AE29">
+            <v>95.345427999999998</v>
+          </cell>
+          <cell r="AF29">
+            <v>98.375381000000004</v>
+          </cell>
+          <cell r="AG29">
+            <v>101.10974899999999</v>
+          </cell>
+          <cell r="AH29">
+            <v>104.14670599999999</v>
+          </cell>
+          <cell r="AI29">
+            <v>107.31989299999999</v>
+          </cell>
+          <cell r="AJ29">
+            <v>110.55276499999999</v>
+          </cell>
+          <cell r="AK29">
+            <v>2.3E-2</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>Heavy Subtotal</v>
+          </cell>
+          <cell r="B40" t="str">
+            <v>Freight: Truck Stock: Vehicle Miles Traveled: Heavy: High oil and gas supply</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>58-AEO2020.37.highogs-d112619a</v>
+          </cell>
+          <cell r="D40" t="str">
+            <v>billion miles</v>
+          </cell>
+          <cell r="E40">
+            <v>187.57427999999999</v>
+          </cell>
+          <cell r="F40">
+            <v>189.93634</v>
+          </cell>
+          <cell r="G40">
+            <v>192.67484999999999</v>
+          </cell>
+          <cell r="H40">
+            <v>195.238831</v>
+          </cell>
+          <cell r="I40">
+            <v>197.73292499999999</v>
+          </cell>
+          <cell r="J40">
+            <v>198.88999899999999</v>
+          </cell>
+          <cell r="K40">
+            <v>200.11705000000001</v>
+          </cell>
+          <cell r="L40">
+            <v>201.199692</v>
+          </cell>
+          <cell r="M40">
+            <v>202.49142499999999</v>
+          </cell>
+          <cell r="N40">
+            <v>203.39149499999999</v>
+          </cell>
+          <cell r="O40">
+            <v>204.320618</v>
+          </cell>
+          <cell r="P40">
+            <v>204.68647799999999</v>
+          </cell>
+          <cell r="Q40">
+            <v>206.036835</v>
+          </cell>
+          <cell r="R40">
+            <v>206.859329</v>
+          </cell>
+          <cell r="S40">
+            <v>207.93722500000001</v>
+          </cell>
+          <cell r="T40">
+            <v>208.573792</v>
+          </cell>
+          <cell r="U40">
+            <v>209.42460600000001</v>
+          </cell>
+          <cell r="V40">
+            <v>210.416504</v>
+          </cell>
+          <cell r="W40">
+            <v>211.109589</v>
+          </cell>
+          <cell r="X40">
+            <v>211.91996800000001</v>
+          </cell>
+          <cell r="Y40">
+            <v>212.676163</v>
+          </cell>
+          <cell r="Z40">
+            <v>213.60458399999999</v>
+          </cell>
+          <cell r="AA40">
+            <v>214.56098900000001</v>
+          </cell>
+          <cell r="AB40">
+            <v>215.668274</v>
+          </cell>
+          <cell r="AC40">
+            <v>216.67707799999999</v>
+          </cell>
+          <cell r="AD40">
+            <v>218.04837000000001</v>
+          </cell>
+          <cell r="AE40">
+            <v>219.66639699999999</v>
+          </cell>
+          <cell r="AF40">
+            <v>221.832581</v>
+          </cell>
+          <cell r="AG40">
+            <v>223.127869</v>
+          </cell>
+          <cell r="AH40">
+            <v>224.901825</v>
+          </cell>
+          <cell r="AI40">
+            <v>226.75671399999999</v>
+          </cell>
+          <cell r="AJ40">
+            <v>228.51850899999999</v>
+          </cell>
+          <cell r="AK40">
+            <v>6.0000000000000001E-3</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1892,17 +3182,17 @@
   <dimension ref="A1:B79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="73.140625" customWidth="1"/>
+    <col min="2" max="2" width="73.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1910,315 +3200,318 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>19</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="3">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>18</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="B8" t="s">
-        <v>16</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="B10" s="2" t="s">
-        <v>41</v>
+      <c r="B10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="B11" t="s">
-        <v>40</v>
+      <c r="B11" s="3">
+        <v>2013</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="B12" s="3">
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="3">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="3">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="3">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="3">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="3">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="3">
         <v>2013</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="B13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="B14" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="3">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="3">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="3">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="3">
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="3">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="B65" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="B66" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
-      <c r="B41" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="3">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="3">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2">
-      <c r="B54" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="3">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2">
-      <c r="B61" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="B65" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="B66" t="s">
-        <v>127</v>
-      </c>
-    </row>
     <row r="67" spans="1:2">
-      <c r="B67" s="3">
-        <v>2018</v>
+      <c r="B67" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="B68" t="s">
-        <v>126</v>
+      <c r="B68" s="9" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="B69" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="B70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="1" t="s">
+      <c r="B69" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="1" t="s">
-        <v>35</v>
+      <c r="A74">
+        <v>1.2969999999999999</v>
+      </c>
+      <c r="B74" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>1.2969999999999999</v>
+        <v>0.84730412960844359</v>
       </c>
       <c r="B75" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2226,7 +3519,7 @@
         <v>0.9143273584567535</v>
       </c>
       <c r="B76" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2234,7 +3527,7 @@
         <v>0.95661376543184151</v>
       </c>
       <c r="B77" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2242,7 +3535,7 @@
         <v>0.93665959530026111</v>
       </c>
       <c r="B78" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2250,841 +3543,861 @@
         <v>1.0663762232760343</v>
       </c>
       <c r="B79" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="41" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{F7E7A3DE-93B2-4E97-8034-BE9FA2CBB032}"/>
-    <hyperlink ref="B14" r:id="rId2" xr:uid="{0A5F8456-85E2-4B46-98CB-42301965587F}"/>
-    <hyperlink ref="B35" r:id="rId3" display="https://www.icao.int/MID/Documents/2017/Aviation Data and Analysis Seminar/PPT3 - Airlines Operating costs and productivity.pdf" xr:uid="{32C07062-31D6-4D64-9941-54355C398A54}"/>
-    <hyperlink ref="B28" r:id="rId4" xr:uid="{A1682FDD-C2BD-495E-8A6B-5F03193720A5}"/>
-    <hyperlink ref="B42" r:id="rId5" xr:uid="{86CB5594-D53D-4996-A0D1-BB39C7D7D625}"/>
-    <hyperlink ref="B48" r:id="rId6" xr:uid="{B0ED8C7C-30CE-4966-BD3F-14CBF2AB2A2B}"/>
-    <hyperlink ref="B55" r:id="rId7" xr:uid="{B27ABC8E-899E-48AC-8608-F37B2EDFED93}"/>
-    <hyperlink ref="B62" r:id="rId8" display="http://www.sparusa.com/Presentations/Presentation-Commercial Ship Life Cycle &amp; Required Freight Rate (RFR) Cost Model.pdf" xr:uid="{4BC70352-C238-4681-9474-B434C82A9EE6}"/>
-    <hyperlink ref="B69" r:id="rId9" xr:uid="{5439DEF3-45BA-42A3-B033-B27D7C2B3817}"/>
+    <hyperlink ref="B13" r:id="rId1" xr:uid="{0A5F8456-85E2-4B46-98CB-42301965587F}"/>
+    <hyperlink ref="B34" r:id="rId2" display="https://www.icao.int/MID/Documents/2017/Aviation Data and Analysis Seminar/PPT3 - Airlines Operating costs and productivity.pdf" xr:uid="{32C07062-31D6-4D64-9941-54355C398A54}"/>
+    <hyperlink ref="B27" r:id="rId3" xr:uid="{A1682FDD-C2BD-495E-8A6B-5F03193720A5}"/>
+    <hyperlink ref="B41" r:id="rId4" xr:uid="{86CB5594-D53D-4996-A0D1-BB39C7D7D625}"/>
+    <hyperlink ref="B47" r:id="rId5" xr:uid="{B0ED8C7C-30CE-4966-BD3F-14CBF2AB2A2B}"/>
+    <hyperlink ref="B54" r:id="rId6" xr:uid="{B27ABC8E-899E-48AC-8608-F37B2EDFED93}"/>
+    <hyperlink ref="B61" r:id="rId7" display="http://www.sparusa.com/Presentations/Presentation-Commercial Ship Life Cycle &amp; Required Freight Rate (RFR) Cost Model.pdf" xr:uid="{4BC70352-C238-4681-9474-B434C82A9EE6}"/>
+    <hyperlink ref="B68" r:id="rId8" xr:uid="{5439DEF3-45BA-42A3-B033-B27D7C2B3817}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA56E7A-E0B4-48E9-AA66-C39B91D43ABA}">
-  <dimension ref="A1:D100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A440739-7B96-498F-B2B5-51AE7EE1D4FD}">
+  <dimension ref="K1:N4"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="12" max="12" width="10.81640625" customWidth="1"/>
+    <col min="13" max="13" width="10.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="11:14" s="27" customFormat="1" ht="43.5">
+      <c r="L1" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="11:14">
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="M2">
+        <f>L2*'BAADTbVT-passengers'!$B$2</f>
+        <v>1146.6070044711444</v>
+      </c>
+      <c r="N2">
+        <f>L2*'BAADTbVT-freight'!$B$2</f>
+        <v>1000.4265479134275</v>
+      </c>
+    </row>
+    <row r="3" spans="11:14">
+      <c r="K3" t="s">
+        <v>135</v>
+      </c>
+      <c r="L3">
+        <v>0.09</v>
+      </c>
+      <c r="M3">
+        <f>L3*'BAADTbVT-passengers'!$B$2</f>
+        <v>1021.7290138851781</v>
+      </c>
+      <c r="N3">
+        <f>L3*'BAADTbVT-freight'!$B$2</f>
+        <v>891.46920111097484</v>
+      </c>
+    </row>
+    <row r="4" spans="11:14">
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="M4">
+        <f>L4*'BAADTbVT-passengers'!$B$2</f>
+        <v>692.50522052217627</v>
+      </c>
+      <c r="N4">
+        <f>L4*'BAADTbVT-freight'!$B$2</f>
+        <v>604.21801408632746</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA56E7A-E0B4-48E9-AA66-C39B91D43ABA}">
+  <dimension ref="A1:D94"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="27.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="B14" s="27" t="s">
-        <v>130</v>
+      <c r="B14" s="26" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="B15" s="27" t="s">
-        <v>131</v>
+      <c r="B15" s="26" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B18" s="10">
-        <v>931</v>
+        <v>15000</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B19" s="10">
-        <v>489</v>
+        <f>6500+100*1062*3/28</f>
+        <v>17878.571428571428</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="12">
-        <f>B18/About!$A$75*About!$A$76</f>
-        <v>656.31362430473212</v>
-      </c>
-      <c r="C20" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="12">
-        <f>B19/About!$A$75*About!$A$76</f>
-        <v>344.72326776048766</v>
-      </c>
-      <c r="C21" t="s">
-        <v>38</v>
+      <c r="A21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="12">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="10">
-        <v>15000</v>
+        <v>43</v>
+      </c>
+      <c r="B24">
+        <v>9270</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="10">
-        <f>6500+100*1062*3/28</f>
-        <v>17878.571428571428</v>
+        <v>40</v>
+      </c>
+      <c r="B25" s="12">
+        <f>$B$24*B22</f>
+        <v>2595.6000000000004</v>
       </c>
       <c r="C25" t="s">
-        <v>133</v>
-      </c>
-      <c r="D25" t="s">
-        <v>139</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="12">
+        <f>$B$24*B23</f>
+        <v>2039.4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="12">
+        <f>B25*About!$A$77</f>
+        <v>2482.986689554888</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="13">
-        <v>0.28000000000000003</v>
+        <v>17</v>
+      </c>
+      <c r="B28" s="12">
+        <f>B26*About!$A$77</f>
+        <v>1950.9181132216977</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="13">
-        <v>0.22</v>
-      </c>
-      <c r="C29" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" t="s">
-        <v>48</v>
-      </c>
+      <c r="B29" s="12"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30">
-        <v>9270</v>
-      </c>
-      <c r="C30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>51</v>
-      </c>
+      <c r="A30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="17"/>
+      <c r="C30" s="11"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="13">
-        <f>$B$30*B28</f>
-        <v>2595.6000000000004</v>
+        <v>50</v>
+      </c>
+      <c r="B31" s="16">
+        <v>590</v>
       </c>
       <c r="C31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="B32" s="16">
+        <f>B31*About!$A$78</f>
+        <v>552.6291612271541</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="B33" s="18">
+        <v>11.3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="B34" s="18">
+        <v>365</v>
+      </c>
+      <c r="C34" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="13">
-        <f>$B$30*B29</f>
-        <v>2039.4</v>
-      </c>
-      <c r="C32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="13">
-        <f>B31*About!$A$77</f>
-        <v>2482.986689554888</v>
-      </c>
-      <c r="C33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="13">
-        <f>B32*About!$A$77</f>
-        <v>1950.9181132216977</v>
-      </c>
-      <c r="C34" t="s">
-        <v>38</v>
-      </c>
-    </row>
     <row r="35" spans="1:4">
-      <c r="B35" s="13"/>
+      <c r="B35" s="16">
+        <f>B32*B33*B34</f>
+        <v>2279318.9754813975</v>
+      </c>
+      <c r="C35" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="11"/>
+      <c r="B36" s="16"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="17">
-        <v>590</v>
-      </c>
-      <c r="C37" t="s">
-        <v>71</v>
-      </c>
-      <c r="D37" t="s">
-        <v>59</v>
-      </c>
+      <c r="A37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="21"/>
+      <c r="C37" s="11"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="B38" s="17">
-        <f>B37*About!$A$78</f>
-        <v>552.6291612271541</v>
-      </c>
-      <c r="C38" t="s">
-        <v>72</v>
-      </c>
+      <c r="A38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="16"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="B39" s="19">
-        <v>11.3</v>
-      </c>
-      <c r="C39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" t="s">
-        <v>59</v>
-      </c>
+      <c r="A39" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="16"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="B40" s="19">
-        <v>365</v>
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="12">
+        <v>14.36</v>
       </c>
       <c r="C40" t="s">
-        <v>58</v>
+        <v>80</v>
+      </c>
+      <c r="D40" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="B41" s="17">
-        <f>B38*B39*B40</f>
-        <v>2279318.9754813975</v>
+      <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="12">
+        <v>10.49</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>80</v>
+      </c>
+      <c r="D41" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="B42" s="17"/>
+      <c r="B42" s="16"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="11"/>
+      <c r="A43" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" s="23">
+        <f>AVERAGE(21.4,22.7,23.1,25.8,31.2)</f>
+        <v>24.839999999999996</v>
+      </c>
+      <c r="C43" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>96</v>
-      </c>
-      <c r="B44" s="17"/>
+        <v>82</v>
+      </c>
+      <c r="B44" s="18">
+        <f>24*365</f>
+        <v>8760</v>
+      </c>
+      <c r="C44" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="B45" s="17"/>
+      <c r="A45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" s="5">
+        <f>B43*B44</f>
+        <v>217598.39999999997</v>
+      </c>
+      <c r="C45" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>84</v>
-      </c>
-      <c r="B46" s="13">
-        <v>14.36</v>
-      </c>
-      <c r="C46" t="s">
-        <v>86</v>
-      </c>
-      <c r="D46" t="s">
-        <v>97</v>
-      </c>
+      <c r="B46" s="16"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>85</v>
       </c>
-      <c r="B47" s="13">
-        <v>10.49</v>
+      <c r="B47" s="16">
+        <f>B40*B45</f>
+        <v>3124713.0239999993</v>
       </c>
       <c r="C47" t="s">
         <v>86</v>
       </c>
-      <c r="D47" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="B48" s="17"/>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="A48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="16">
+        <f>B41*B45</f>
+        <v>2282607.2159999995</v>
+      </c>
+      <c r="C48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>108</v>
-      </c>
-      <c r="B49" s="24">
-        <f>AVERAGE(21.4,22.7,23.1,25.8,31.2)</f>
-        <v>24.839999999999996</v>
+        <v>85</v>
+      </c>
+      <c r="B49" s="16">
+        <f>B47*About!$A$79</f>
+        <v>3332119.6733545554</v>
       </c>
       <c r="C49" t="s">
-        <v>87</v>
-      </c>
-      <c r="D49" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>88</v>
-      </c>
-      <c r="B50" s="19">
-        <f>24*365</f>
-        <v>8760</v>
+        <v>89</v>
+      </c>
+      <c r="B50" s="16">
+        <f>B48*About!$A$79</f>
+        <v>2434118.0622207024</v>
       </c>
       <c r="C50" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>89</v>
-      </c>
-      <c r="B51" s="5">
-        <f>B49*B50</f>
-        <v>217598.39999999997</v>
-      </c>
-      <c r="C51" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="B52" s="17"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>91</v>
-      </c>
-      <c r="B53" s="17">
-        <f>B46*B51</f>
-        <v>3124713.0239999993</v>
-      </c>
-      <c r="C53" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="B51" s="16"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="B52" s="12"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="17"/>
+      <c r="C53" s="11"/>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>95</v>
-      </c>
-      <c r="B54" s="17">
-        <f>B47*B51</f>
-        <v>2282607.2159999995</v>
+        <v>50</v>
+      </c>
+      <c r="B54" s="16">
+        <v>1000</v>
       </c>
       <c r="C54" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>91</v>
-      </c>
-      <c r="B55" s="17">
-        <f>B53*About!$A$79</f>
-        <v>3332119.6733545554</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="B55" s="16">
+        <f>B54*About!A76</f>
+        <v>914.32735845675347</v>
       </c>
       <c r="C55" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>95</v>
-      </c>
-      <c r="B56" s="17">
-        <f>B54*About!$A$79</f>
-        <v>2434118.0622207024</v>
-      </c>
-      <c r="C56" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="B57" s="17"/>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="B58" s="13"/>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" s="12"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="18"/>
-      <c r="C59" s="11"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
-        <v>56</v>
-      </c>
-      <c r="B60" s="17">
-        <v>1000</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B57" s="12"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" s="12"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="12"/>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" s="12"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="B61" s="17">
-        <f>B60*About!A76</f>
-        <v>914.32735845675347</v>
-      </c>
-      <c r="C61" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>75</v>
-      </c>
-      <c r="B62" s="13"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
-        <v>76</v>
-      </c>
-      <c r="B63" s="13"/>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>77</v>
-      </c>
-      <c r="B64" s="13"/>
+      <c r="B61" s="12"/>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>78</v>
-      </c>
-      <c r="B65" s="13"/>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B66" s="13"/>
+        <v>105</v>
+      </c>
+      <c r="B65" s="16">
+        <v>1695890</v>
+      </c>
+      <c r="C65" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" t="s">
-        <v>80</v>
-      </c>
-      <c r="B67" s="13"/>
+      <c r="A67" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="13" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
+      <c r="A69" s="13" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="1" t="s">
-        <v>110</v>
+      <c r="A70" s="13" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>111</v>
-      </c>
-      <c r="B71" s="17">
-        <v>1695890</v>
+        <v>105</v>
+      </c>
+      <c r="B71" s="24">
+        <v>0.1</v>
       </c>
       <c r="C71" t="s">
-        <v>38</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B72" s="10">
+        <v>30000</v>
+      </c>
+      <c r="C72" t="s">
+        <v>117</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" t="s">
-        <v>111</v>
-      </c>
-      <c r="B77" s="25">
-        <v>0.1</v>
-      </c>
-      <c r="C77" t="s">
-        <v>121</v>
+      <c r="A73" t="s">
+        <v>105</v>
+      </c>
+      <c r="B73" s="10">
+        <f>B71*B72</f>
+        <v>3000</v>
+      </c>
+      <c r="C73" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B78" s="10">
-        <v>30000</v>
-      </c>
-      <c r="C78" t="s">
-        <v>123</v>
-      </c>
-      <c r="D78" s="14" t="s">
-        <v>124</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" t="s">
-        <v>111</v>
-      </c>
-      <c r="B79" s="10">
-        <f>B77*B78</f>
-        <v>3000</v>
-      </c>
-      <c r="C79" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="B85" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="1" t="s">
+      <c r="B79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B86" s="20">
-        <f>B20</f>
-        <v>656.31362430473212</v>
-      </c>
-      <c r="C86" s="20">
-        <f>B21</f>
-        <v>344.72326776048766</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="1" t="s">
+      <c r="B80" s="19">
+        <f>LDVs!M2</f>
+        <v>1146.6070044711444</v>
+      </c>
+      <c r="C80" s="19">
+        <f>LDVs!M4</f>
+        <v>692.50522052217627</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B87" s="20">
-        <f>B33</f>
+      <c r="B81" s="19">
+        <f>B27</f>
         <v>2482.986689554888</v>
       </c>
-      <c r="C87" s="20">
-        <f>B34</f>
+      <c r="C81" s="19">
+        <f>B28</f>
         <v>1950.9181132216977</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="1" t="s">
+    <row r="82" spans="1:3">
+      <c r="A82" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B88" s="20">
-        <f>B41</f>
+      <c r="B82" s="19">
+        <f>B35</f>
         <v>2279318.9754813975</v>
       </c>
-      <c r="C88" t="e">
+      <c r="C82" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="19">
+        <f>B49</f>
+        <v>3332119.6733545554</v>
+      </c>
+      <c r="C83" s="19">
+        <f>B50</f>
+        <v>2434118.0622207024</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="19">
+        <f>B73</f>
+        <v>3000</v>
+      </c>
+      <c r="C84" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="19">
+        <f>B55</f>
+        <v>914.32735845675347</v>
+      </c>
+      <c r="C85" s="20">
+        <f>B85*(C80/B80)</f>
+        <v>552.21751352338572</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B87" s="15"/>
+      <c r="C87" s="15"/>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="B88" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B89" s="20">
-        <f>B55</f>
-        <v>3332119.6733545554</v>
-      </c>
-      <c r="C89" s="20">
-        <f>B56</f>
-        <v>2434118.0622207024</v>
+        <v>2</v>
+      </c>
+      <c r="B89" s="19">
+        <f>LDVs!N2</f>
+        <v>1000.4265479134275</v>
+      </c>
+      <c r="C89" s="19">
+        <f>LDVs!N4</f>
+        <v>604.21801408632746</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B90" s="20">
-        <f>B79</f>
-        <v>3000</v>
-      </c>
-      <c r="C90" t="e">
+        <v>3</v>
+      </c>
+      <c r="B90" s="19">
+        <f>B18</f>
+        <v>15000</v>
+      </c>
+      <c r="C90" s="20">
+        <f>B90*(C81/B81)</f>
+        <v>11785.714285714286</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" s="19">
+        <f>B82</f>
+        <v>2279318.9754813975</v>
+      </c>
+      <c r="C91" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B91" s="20">
-        <f>B61</f>
-        <v>914.32735845675347</v>
-      </c>
-      <c r="C91" s="21">
-        <f>B91*(C86/B86)</f>
-        <v>480.24283381885334</v>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="19">
+        <f>B49</f>
+        <v>3332119.6733545554</v>
+      </c>
+      <c r="C92" s="19">
+        <f>B50</f>
+        <v>2434118.0622207024</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B93" s="16"/>
-      <c r="C93" s="16"/>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="B94" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B95" s="20">
-        <f>B86</f>
-        <v>656.31362430473212</v>
-      </c>
-      <c r="C95" s="20">
-        <f>C86</f>
-        <v>344.72326776048766</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B96" s="20">
-        <f>B24</f>
-        <v>15000</v>
-      </c>
-      <c r="C96" s="21">
-        <f>B96*(C87/B87)</f>
-        <v>11785.714285714286</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B97" s="20">
-        <f>B88</f>
-        <v>2279318.9754813975</v>
-      </c>
-      <c r="C97" t="e">
+      <c r="A93" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" s="19">
+        <f>B65</f>
+        <v>1695890</v>
+      </c>
+      <c r="C93" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B98" s="20">
-        <f>B55</f>
-        <v>3332119.6733545554</v>
-      </c>
-      <c r="C98" s="20">
-        <f>B56</f>
-        <v>2434118.0622207024</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B99" s="20">
-        <f>B71</f>
-        <v>1695890</v>
-      </c>
-      <c r="C99" t="e">
+    <row r="94" spans="1:3">
+      <c r="A94" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B100" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C100" t="e">
+      <c r="C94" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
@@ -3093,30 +4406,1694 @@
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{DEA7D659-12AB-4A56-889B-D770D6477AD9}"/>
     <hyperlink ref="B13" r:id="rId2" xr:uid="{83856772-5164-484D-9C39-5E905DAB68CE}"/>
-    <hyperlink ref="A66" r:id="rId3" xr:uid="{CF3217FC-13DF-41C0-A64F-4474765B54A2}"/>
+    <hyperlink ref="A60" r:id="rId3" xr:uid="{CF3217FC-13DF-41C0-A64F-4474765B54A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E41685-1E05-444F-846C-9153432CF0DA}">
+  <dimension ref="A1:AH7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="28.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34">
+      <c r="A1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1">
+        <v>2018</v>
+      </c>
+      <c r="C1">
+        <v>2019</v>
+      </c>
+      <c r="D1">
+        <v>2020</v>
+      </c>
+      <c r="E1">
+        <v>2021</v>
+      </c>
+      <c r="F1">
+        <v>2022</v>
+      </c>
+      <c r="G1">
+        <v>2023</v>
+      </c>
+      <c r="H1">
+        <v>2024</v>
+      </c>
+      <c r="I1">
+        <v>2025</v>
+      </c>
+      <c r="J1">
+        <v>2026</v>
+      </c>
+      <c r="K1">
+        <v>2027</v>
+      </c>
+      <c r="L1">
+        <v>2028</v>
+      </c>
+      <c r="M1">
+        <v>2029</v>
+      </c>
+      <c r="N1">
+        <v>2030</v>
+      </c>
+      <c r="O1">
+        <v>2031</v>
+      </c>
+      <c r="P1">
+        <v>2032</v>
+      </c>
+      <c r="Q1">
+        <v>2033</v>
+      </c>
+      <c r="R1">
+        <v>2034</v>
+      </c>
+      <c r="S1">
+        <v>2035</v>
+      </c>
+      <c r="T1">
+        <v>2036</v>
+      </c>
+      <c r="U1">
+        <v>2037</v>
+      </c>
+      <c r="V1">
+        <v>2038</v>
+      </c>
+      <c r="W1">
+        <v>2039</v>
+      </c>
+      <c r="X1">
+        <v>2040</v>
+      </c>
+      <c r="Y1">
+        <v>2041</v>
+      </c>
+      <c r="Z1">
+        <v>2042</v>
+      </c>
+      <c r="AA1">
+        <v>2043</v>
+      </c>
+      <c r="AB1">
+        <v>2044</v>
+      </c>
+      <c r="AC1">
+        <v>2045</v>
+      </c>
+      <c r="AD1">
+        <v>2046</v>
+      </c>
+      <c r="AE1">
+        <v>2047</v>
+      </c>
+      <c r="AF1">
+        <v>2048</v>
+      </c>
+      <c r="AG1">
+        <v>2049</v>
+      </c>
+      <c r="AH1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="C2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="D2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="E2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="F2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="G2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="H2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="I2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="J2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="K2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="L2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="M2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="N2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="O2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="P2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="Q2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="R2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="S2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="T2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="U2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="V2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="W2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="X2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="Y2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="Z2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="AA2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="AB2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="AC2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="AD2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="AE2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="AF2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="AG2">
+        <v>11352.544598724202</v>
+      </c>
+      <c r="AH2">
+        <v>11352.544598724202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="C3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="D3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="E3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="F3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="G3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="H3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="I3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="J3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="K3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="L3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="M3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="N3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="O3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="P3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="Q3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="R3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="S3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="T3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="U3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="V3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="W3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="X3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="Y3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="Z3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="AA3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="AB3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="AC3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="AD3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="AE3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="AF3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="AG3">
+        <v>10078.78705377418</v>
+      </c>
+      <c r="AH3">
+        <v>10078.78705377418</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="C4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="D4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="E4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="F4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="G4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="H4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="I4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="J4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="K4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="L4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="M4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="N4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="O4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="P4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="Q4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="R4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="S4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="T4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="U4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="V4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="W4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="X4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="Y4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="Z4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="AA4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="AB4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="AC4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="AD4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="AE4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="AF4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="AG4">
+        <v>1280573.0572316123</v>
+      </c>
+      <c r="AH4">
+        <v>1280573.0572316123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="C5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="D5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="E5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="F5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="G5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="H5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="I5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="J5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="K5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="L5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="M5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="N5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="O5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="P5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="Q5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="R5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="S5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="T5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="U5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="V5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="W5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="X5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="Y5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="Z5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="AA5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="AB5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="AC5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="AD5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="AE5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="AF5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="AG5">
+        <v>33681.515580485888</v>
+      </c>
+      <c r="AH5">
+        <v>33681.515580485888</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="C6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="D6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="E6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="F6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="G6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="H6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="I6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="J6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="K6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="L6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="M6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="N6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="O6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="P6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="Q6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="R6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="S6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="T6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="U6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="V6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="W6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="X6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="Y6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="Z6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="AA6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="AB6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="AC6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="AD6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="AE6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="AF6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="AG6">
+        <v>194.17552144824873</v>
+      </c>
+      <c r="AH6">
+        <v>194.17552144824873</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="C7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="D7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="E7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="F7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="G7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="H7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="I7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="J7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="K7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="L7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="M7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="N7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="O7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="P7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="Q7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="R7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="S7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="T7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="U7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="V7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="W7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="X7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="Y7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="Z7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="AA7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="AB7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="AC7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="AD7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="AE7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="AF7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="AG7">
+        <v>1929.9434721024677</v>
+      </c>
+      <c r="AH7">
+        <v>1929.9434721024677</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8B23E7-94D4-4A1A-8AA7-375C9DD91AAC}">
+  <dimension ref="A1:AG7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="16.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" ht="29">
+      <c r="A1" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2029</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2031</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2032</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2033</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2034</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2035</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2036</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2037</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2038</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2039</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2040</v>
+      </c>
+      <c r="X1" s="1">
+        <v>2041</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>2042</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>2043</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>2044</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>2045</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>2046</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>2047</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>2049</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5">
+        <f>(INDEX('[2]AEO 7'!19:19,MATCH([2]About!$B$35,'[2]AEO 7'!$13:$13,0))+INDEX('[2]AEO 49'!18:18,MATCH(B1,'[2]AEO 49'!5:5,0))+INDEX('[2]AEO 49'!29:29,MATCH(B1,'[2]AEO 49'!5:5,0)))*1000000000/SUM('[2]SYVbT-freight'!$B$2:$H$2)</f>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="C2" s="5">
+        <f t="shared" ref="C2:R7" si="0">B2</f>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="D2" s="5">
+        <f t="shared" si="0"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="E2" s="5">
+        <f t="shared" si="0"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="F2" s="5">
+        <f t="shared" si="0"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="G2" s="5">
+        <f t="shared" si="0"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="H2" s="5">
+        <f t="shared" si="0"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="I2" s="5">
+        <f t="shared" si="0"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="J2" s="5">
+        <f t="shared" si="0"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="K2" s="5">
+        <f t="shared" si="0"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="L2" s="5">
+        <f t="shared" si="0"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="M2" s="5">
+        <f t="shared" si="0"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="N2" s="5">
+        <f t="shared" si="0"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="O2" s="5">
+        <f t="shared" si="0"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="P2" s="5">
+        <f t="shared" si="0"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="Q2" s="5">
+        <f t="shared" si="0"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="R2" s="5">
+        <f t="shared" si="0"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="S2" s="5">
+        <f t="shared" ref="R2:AG7" si="1">R2</f>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="T2" s="5">
+        <f t="shared" si="1"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="U2" s="5">
+        <f t="shared" si="1"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="V2" s="5">
+        <f t="shared" si="1"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="W2" s="5">
+        <f t="shared" si="1"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="X2" s="5">
+        <f t="shared" si="1"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="Y2" s="5">
+        <f t="shared" si="1"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="Z2" s="5">
+        <f t="shared" si="1"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="AA2" s="5">
+        <f t="shared" si="1"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="AB2" s="5">
+        <f t="shared" si="1"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="AC2" s="5">
+        <f t="shared" si="1"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="AD2" s="5">
+        <f t="shared" si="1"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="AE2" s="5">
+        <f t="shared" si="1"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="AF2" s="5">
+        <f t="shared" si="1"/>
+        <v>9905.2133456774991</v>
+      </c>
+      <c r="AG2" s="5">
+        <f t="shared" si="1"/>
+        <v>9905.2133456774991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5">
+        <f>(INDEX('[2]AEO 49'!40:40,MATCH([2]About!$B$35,'[2]AEO 49'!5:5,0)))*1000000000/SUM('[2]SYVbT-freight'!$B$3:$H$3)</f>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="C3" s="5">
+        <f t="shared" si="0"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" si="0"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" si="0"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" si="0"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" si="0"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" si="0"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" si="0"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="J3" s="5">
+        <f t="shared" si="0"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="K3" s="5">
+        <f t="shared" si="0"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="L3" s="5">
+        <f t="shared" si="0"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="M3" s="5">
+        <f t="shared" si="0"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="N3" s="5">
+        <f t="shared" si="0"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="O3" s="5">
+        <f t="shared" si="0"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="P3" s="5">
+        <f t="shared" si="0"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="Q3" s="5">
+        <f t="shared" si="0"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="R3" s="5">
+        <f t="shared" si="1"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="S3" s="5">
+        <f t="shared" si="1"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="T3" s="5">
+        <f t="shared" si="1"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="U3" s="5">
+        <f t="shared" si="1"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="V3" s="5">
+        <f t="shared" si="1"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="W3" s="5">
+        <f t="shared" si="1"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="X3" s="5">
+        <f t="shared" si="1"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="Y3" s="5">
+        <f t="shared" si="1"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="Z3" s="5">
+        <f t="shared" si="1"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="AA3" s="5">
+        <f t="shared" si="1"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="AB3" s="5">
+        <f t="shared" si="1"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="AC3" s="5">
+        <f t="shared" si="1"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="AD3" s="5">
+        <f t="shared" si="1"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="AE3" s="5">
+        <f t="shared" si="1"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="AF3" s="5">
+        <f t="shared" si="1"/>
+        <v>37032.719616765411</v>
+      </c>
+      <c r="AG3" s="5">
+        <f t="shared" si="1"/>
+        <v>37032.719616765411</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5">
+        <f>(INDEX('[2]AEO 47'!64:64,MATCH([2]About!$B$35,'[2]AEO 47'!$1:$1,0))*1000000000)/'[2]SYVbT-freight'!E4/'[2]AVLo-freight'!B4</f>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="C4" s="5">
+        <f t="shared" si="0"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="D4" s="5">
+        <f t="shared" si="0"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="0"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="0"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" si="0"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" si="0"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="0"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" si="0"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="K4" s="5">
+        <f t="shared" si="0"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="L4" s="5">
+        <f t="shared" si="0"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="M4" s="5">
+        <f t="shared" si="0"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="N4" s="5">
+        <f t="shared" si="0"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="O4" s="5">
+        <f t="shared" si="0"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="P4" s="5">
+        <f t="shared" si="0"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="Q4" s="5">
+        <f t="shared" si="0"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="R4" s="5">
+        <f t="shared" si="0"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="S4" s="5">
+        <f t="shared" si="1"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="T4" s="5">
+        <f t="shared" si="1"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="U4" s="5">
+        <f t="shared" si="1"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="V4" s="5">
+        <f t="shared" si="1"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="W4" s="5">
+        <f t="shared" si="1"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="X4" s="5">
+        <f t="shared" si="1"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="Y4" s="5">
+        <f t="shared" si="1"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="Z4" s="5">
+        <f t="shared" si="1"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="AA4" s="5">
+        <f t="shared" si="1"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="AB4" s="5">
+        <f t="shared" si="1"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="AC4" s="5">
+        <f t="shared" si="1"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="AD4" s="5">
+        <f t="shared" si="1"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="AE4" s="5">
+        <f t="shared" si="1"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="AF4" s="5">
+        <f t="shared" si="1"/>
+        <v>999951.98753447877</v>
+      </c>
+      <c r="AG4" s="5">
+        <f t="shared" si="1"/>
+        <v>999951.98753447877</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5">
+        <f>INDEX('[2]AEO 7'!27:27,MATCH([2]About!$B$35,'[2]AEO 7'!$13:$13,0))*1000000000/'[2]SYVbT-freight'!E5/'[2]AVLo-freight'!B5</f>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="C5" s="5">
+        <f t="shared" si="0"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="0"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="0"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="0"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="0"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="0"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" si="0"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="K5" s="5">
+        <f t="shared" si="0"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="L5" s="5">
+        <f t="shared" si="0"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="M5" s="5">
+        <f t="shared" si="0"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="N5" s="5">
+        <f t="shared" si="0"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="O5" s="5">
+        <f t="shared" si="0"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="P5" s="5">
+        <f t="shared" si="0"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="Q5" s="5">
+        <f t="shared" si="0"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="R5" s="5">
+        <f t="shared" si="0"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="S5" s="5">
+        <f t="shared" si="1"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="T5" s="5">
+        <f t="shared" si="1"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="U5" s="5">
+        <f t="shared" si="1"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="V5" s="5">
+        <f t="shared" si="1"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="W5" s="5">
+        <f t="shared" si="1"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="X5" s="5">
+        <f t="shared" si="1"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="Y5" s="5">
+        <f t="shared" si="1"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="Z5" s="5">
+        <f t="shared" si="1"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="AA5" s="5">
+        <f t="shared" si="1"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="AB5" s="5">
+        <f t="shared" si="1"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="AC5" s="5">
+        <f t="shared" si="1"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="AD5" s="5">
+        <f t="shared" si="1"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="AE5" s="5">
+        <f t="shared" si="1"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="AF5" s="5">
+        <f t="shared" si="1"/>
+        <v>19757.954395082073</v>
+      </c>
+      <c r="AG5" s="5">
+        <f t="shared" si="1"/>
+        <v>19757.954395082073</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="5">
+        <f>(INDEX('[2]AEO 7'!28:28,MATCH([2]About!$B$35,'[2]AEO 7'!$13:$13,0))*1000000000/'[2]SYVbT-freight'!E6/'[2]AVLo-freight'!B6)*(('[2]AEO 7'!C62+'[2]AEO 7'!C63)/'[2]AEO 7'!C62)</f>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" si="0"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="0"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="0"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="0"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="0"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="0"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" si="0"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" si="0"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" si="0"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="N6" s="5">
+        <f t="shared" si="0"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="O6" s="5">
+        <f t="shared" si="0"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="P6" s="5">
+        <f t="shared" si="0"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="Q6" s="5">
+        <f t="shared" si="0"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="R6" s="5">
+        <f t="shared" si="0"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="S6" s="5">
+        <f t="shared" si="1"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="T6" s="5">
+        <f t="shared" si="1"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="U6" s="5">
+        <f t="shared" si="1"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="V6" s="5">
+        <f t="shared" si="1"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="W6" s="5">
+        <f t="shared" si="1"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="X6" s="5">
+        <f t="shared" si="1"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="Y6" s="5">
+        <f t="shared" si="1"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="Z6" s="5">
+        <f t="shared" si="1"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="AA6" s="5">
+        <f t="shared" si="1"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="AB6" s="5">
+        <f t="shared" si="1"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="AC6" s="5">
+        <f t="shared" si="1"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="AD6" s="5">
+        <f t="shared" si="1"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="AE6" s="5">
+        <f t="shared" si="1"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="AF6" s="5">
+        <f t="shared" si="1"/>
+        <v>237371.13741892608</v>
+      </c>
+      <c r="AG6" s="5">
+        <f t="shared" si="1"/>
+        <v>237371.13741892608</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="8" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" customWidth="1"/>
+    <col min="6" max="8" width="23.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3150,32 +6127,32 @@
         <v>2</v>
       </c>
       <c r="B2" s="5">
-        <f>'Cost Data'!$C86</f>
-        <v>344.72326776048766</v>
+        <f>LDVs!$M$4</f>
+        <v>692.50522052217627</v>
       </c>
       <c r="C2" s="5">
-        <f>'Cost Data'!$B86</f>
-        <v>656.31362430473212</v>
+        <f>LDVs!$M$2</f>
+        <v>1146.6070044711444</v>
       </c>
       <c r="D2" s="5">
-        <f>'Cost Data'!$B86</f>
-        <v>656.31362430473212</v>
+        <f>LDVs!$M$2</f>
+        <v>1146.6070044711444</v>
       </c>
       <c r="E2" s="5">
-        <f>'Cost Data'!$B86</f>
-        <v>656.31362430473212</v>
+        <f>LDVs!$M$2</f>
+        <v>1146.6070044711444</v>
       </c>
       <c r="F2" s="5">
-        <f>'Cost Data'!$B86</f>
-        <v>656.31362430473212</v>
+        <f>LDVs!M3</f>
+        <v>1021.7290138851781</v>
       </c>
       <c r="G2" s="5">
-        <f>'Cost Data'!$B86</f>
-        <v>656.31362430473212</v>
+        <f>LDVs!$M$2</f>
+        <v>1146.6070044711444</v>
       </c>
       <c r="H2" s="5">
-        <f>'Cost Data'!$C86</f>
-        <v>344.72326776048766</v>
+        <f>B2</f>
+        <v>692.50522052217627</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3183,31 +6160,31 @@
         <v>3</v>
       </c>
       <c r="B3" s="5">
-        <f>'Cost Data'!$C87</f>
+        <f>'Cost Data'!$C81</f>
         <v>1950.9181132216977</v>
       </c>
       <c r="C3" s="5">
-        <f>'Cost Data'!$B87</f>
+        <f>'Cost Data'!$B81</f>
         <v>2482.986689554888</v>
       </c>
       <c r="D3" s="5">
-        <f>'Cost Data'!$B87</f>
+        <f>'Cost Data'!$B81</f>
         <v>2482.986689554888</v>
       </c>
       <c r="E3" s="5">
-        <f>'Cost Data'!$B87</f>
+        <f>'Cost Data'!$B81</f>
         <v>2482.986689554888</v>
       </c>
       <c r="F3" s="5">
-        <f>'Cost Data'!$B87</f>
+        <f>'Cost Data'!$B81</f>
         <v>2482.986689554888</v>
       </c>
       <c r="G3" s="5">
-        <f>'Cost Data'!$B87</f>
+        <f>'Cost Data'!$B81</f>
         <v>2482.986689554888</v>
       </c>
       <c r="H3" s="5">
-        <f>'Cost Data'!$C87</f>
+        <f>'Cost Data'!$C81</f>
         <v>1950.9181132216977</v>
       </c>
     </row>
@@ -3215,30 +6192,30 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="25">
         <v>0</v>
       </c>
       <c r="C4" s="5">
-        <f>'Cost Data'!$B88</f>
+        <f>'Cost Data'!$B82</f>
         <v>2279318.9754813975</v>
       </c>
       <c r="D4" s="5">
-        <f>'Cost Data'!$B88</f>
+        <f>'Cost Data'!$B82</f>
         <v>2279318.9754813975</v>
       </c>
       <c r="E4" s="5">
-        <f>'Cost Data'!$B88</f>
+        <f>'Cost Data'!$B82</f>
         <v>2279318.9754813975</v>
       </c>
       <c r="F4" s="5">
-        <f>'Cost Data'!$B88</f>
+        <f>'Cost Data'!$B82</f>
         <v>2279318.9754813975</v>
       </c>
       <c r="G4" s="5">
-        <f>'Cost Data'!$B88</f>
+        <f>'Cost Data'!$B82</f>
         <v>2279318.9754813975</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="25">
         <v>0</v>
       </c>
     </row>
@@ -3247,31 +6224,31 @@
         <v>5</v>
       </c>
       <c r="B5" s="5">
-        <f>'Cost Data'!$C89</f>
+        <f>'Cost Data'!$C83</f>
         <v>2434118.0622207024</v>
       </c>
       <c r="C5" s="5">
-        <f>'Cost Data'!$B89</f>
+        <f>'Cost Data'!$B83</f>
         <v>3332119.6733545554</v>
       </c>
       <c r="D5" s="5">
-        <f>'Cost Data'!$B89</f>
+        <f>'Cost Data'!$B83</f>
         <v>3332119.6733545554</v>
       </c>
       <c r="E5" s="5">
-        <f>'Cost Data'!$B89</f>
+        <f>'Cost Data'!$B83</f>
         <v>3332119.6733545554</v>
       </c>
       <c r="F5" s="5">
-        <f>'Cost Data'!$B89</f>
+        <f>'Cost Data'!$B83</f>
         <v>3332119.6733545554</v>
       </c>
       <c r="G5" s="5">
-        <f>'Cost Data'!$B89</f>
+        <f>'Cost Data'!$B83</f>
         <v>3332119.6733545554</v>
       </c>
       <c r="H5" s="5">
-        <f>'Cost Data'!$C89</f>
+        <f>'Cost Data'!$C83</f>
         <v>2434118.0622207024</v>
       </c>
     </row>
@@ -3279,30 +6256,30 @@
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="25">
         <v>0</v>
       </c>
       <c r="C6" s="5">
-        <f>'Cost Data'!$B90</f>
+        <f>'Cost Data'!$B84</f>
         <v>3000</v>
       </c>
       <c r="D6" s="5">
-        <f>'Cost Data'!$B90</f>
+        <f>'Cost Data'!$B84</f>
         <v>3000</v>
       </c>
       <c r="E6" s="5">
-        <f>'Cost Data'!$B90</f>
+        <f>'Cost Data'!$B84</f>
         <v>3000</v>
       </c>
       <c r="F6" s="5">
-        <f>'Cost Data'!$B90</f>
+        <f>'Cost Data'!$B84</f>
         <v>3000</v>
       </c>
       <c r="G6" s="5">
-        <f>'Cost Data'!$B90</f>
+        <f>'Cost Data'!$B84</f>
         <v>3000</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="25">
         <v>0</v>
       </c>
     </row>
@@ -3311,32 +6288,32 @@
         <v>7</v>
       </c>
       <c r="B7" s="5">
-        <f>'Cost Data'!$C91</f>
-        <v>480.24283381885334</v>
+        <f>'Cost Data'!$C85</f>
+        <v>552.21751352338572</v>
       </c>
       <c r="C7" s="5">
-        <f>'Cost Data'!$B91</f>
+        <f>'Cost Data'!$B85</f>
         <v>914.32735845675347</v>
       </c>
       <c r="D7" s="5">
-        <f>'Cost Data'!$B91</f>
+        <f>'Cost Data'!$B85</f>
         <v>914.32735845675347</v>
       </c>
       <c r="E7" s="5">
-        <f>'Cost Data'!$B91</f>
+        <f>'Cost Data'!$B85</f>
         <v>914.32735845675347</v>
       </c>
       <c r="F7" s="5">
-        <f>'Cost Data'!$B91</f>
+        <f>'Cost Data'!$B85</f>
         <v>914.32735845675347</v>
       </c>
       <c r="G7" s="5">
-        <f>'Cost Data'!$B91</f>
+        <f>'Cost Data'!$B85</f>
         <v>914.32735845675347</v>
       </c>
       <c r="H7" s="5">
-        <f>'Cost Data'!$C91</f>
-        <v>480.24283381885334</v>
+        <f>'Cost Data'!$C85</f>
+        <v>552.21751352338572</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3357,7 +6334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -3365,17 +6342,17 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="A1:H7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="8" width="23.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" customWidth="1"/>
+    <col min="6" max="8" width="23.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3409,32 +6386,32 @@
         <v>2</v>
       </c>
       <c r="B2" s="6">
-        <f>'Cost Data'!$C95</f>
-        <v>344.72326776048766</v>
+        <f>LDVs!N4</f>
+        <v>604.21801408632746</v>
       </c>
       <c r="C2" s="6">
-        <f>'Cost Data'!$B95</f>
-        <v>656.31362430473212</v>
+        <f>LDVs!$N$2</f>
+        <v>1000.4265479134275</v>
       </c>
       <c r="D2" s="6">
-        <f>'Cost Data'!$B95</f>
-        <v>656.31362430473212</v>
+        <f>LDVs!$N$2</f>
+        <v>1000.4265479134275</v>
       </c>
       <c r="E2" s="6">
-        <f>'Cost Data'!$B95</f>
-        <v>656.31362430473212</v>
+        <f>LDVs!$N$2</f>
+        <v>1000.4265479134275</v>
       </c>
       <c r="F2" s="6">
-        <f>'Cost Data'!$B95</f>
-        <v>656.31362430473212</v>
+        <f>LDVs!N3</f>
+        <v>891.46920111097484</v>
       </c>
       <c r="G2" s="6">
-        <f>'Cost Data'!$B95</f>
-        <v>656.31362430473212</v>
+        <f>LDVs!$N$2</f>
+        <v>1000.4265479134275</v>
       </c>
       <c r="H2" s="6">
-        <f>'Cost Data'!$C95</f>
-        <v>344.72326776048766</v>
+        <f>B2</f>
+        <v>604.21801408632746</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3442,31 +6419,31 @@
         <v>3</v>
       </c>
       <c r="B3" s="6">
-        <f>'Cost Data'!B25</f>
+        <f>'Cost Data'!B19</f>
         <v>17878.571428571428</v>
       </c>
       <c r="C3" s="6">
-        <f>'Cost Data'!$B96</f>
+        <f>'Cost Data'!$B90</f>
         <v>15000</v>
       </c>
       <c r="D3" s="6">
-        <f>'Cost Data'!$B96</f>
+        <f>'Cost Data'!$B90</f>
         <v>15000</v>
       </c>
       <c r="E3" s="6">
-        <f>'Cost Data'!$B96</f>
+        <f>'Cost Data'!$B90</f>
         <v>15000</v>
       </c>
       <c r="F3" s="6">
-        <f>'Cost Data'!$B96</f>
+        <f>'Cost Data'!$B90</f>
         <v>15000</v>
       </c>
       <c r="G3" s="6">
-        <f>'Cost Data'!$B96</f>
+        <f>'Cost Data'!$B90</f>
         <v>15000</v>
       </c>
       <c r="H3" s="6">
-        <f>'Cost Data'!$C96</f>
+        <f>'Cost Data'!$C90</f>
         <v>11785.714285714286</v>
       </c>
     </row>
@@ -3474,30 +6451,30 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="25">
         <v>0</v>
       </c>
       <c r="C4" s="6">
-        <f>'Cost Data'!$B97</f>
+        <f>'Cost Data'!$B91</f>
         <v>2279318.9754813975</v>
       </c>
       <c r="D4" s="6">
-        <f>'Cost Data'!$B97</f>
+        <f>'Cost Data'!$B91</f>
         <v>2279318.9754813975</v>
       </c>
       <c r="E4" s="6">
-        <f>'Cost Data'!$B97</f>
+        <f>'Cost Data'!$B91</f>
         <v>2279318.9754813975</v>
       </c>
       <c r="F4" s="6">
-        <f>'Cost Data'!$B97</f>
+        <f>'Cost Data'!$B91</f>
         <v>2279318.9754813975</v>
       </c>
       <c r="G4" s="6">
-        <f>'Cost Data'!$B97</f>
+        <f>'Cost Data'!$B91</f>
         <v>2279318.9754813975</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="25">
         <v>0</v>
       </c>
     </row>
@@ -3506,31 +6483,31 @@
         <v>5</v>
       </c>
       <c r="B5" s="6">
-        <f>'Cost Data'!$C98</f>
+        <f>'Cost Data'!$C92</f>
         <v>2434118.0622207024</v>
       </c>
       <c r="C5" s="6">
-        <f>'Cost Data'!$B98</f>
+        <f>'Cost Data'!$B92</f>
         <v>3332119.6733545554</v>
       </c>
       <c r="D5" s="6">
-        <f>'Cost Data'!$B98</f>
+        <f>'Cost Data'!$B92</f>
         <v>3332119.6733545554</v>
       </c>
       <c r="E5" s="6">
-        <f>'Cost Data'!$B98</f>
+        <f>'Cost Data'!$B92</f>
         <v>3332119.6733545554</v>
       </c>
       <c r="F5" s="6">
-        <f>'Cost Data'!$B98</f>
+        <f>'Cost Data'!$B92</f>
         <v>3332119.6733545554</v>
       </c>
       <c r="G5" s="6">
-        <f>'Cost Data'!$B98</f>
+        <f>'Cost Data'!$B92</f>
         <v>3332119.6733545554</v>
       </c>
       <c r="H5" s="6">
-        <f>'Cost Data'!$C98</f>
+        <f>'Cost Data'!$C92</f>
         <v>2434118.0622207024</v>
       </c>
     </row>
@@ -3538,30 +6515,30 @@
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="25">
         <v>0</v>
       </c>
       <c r="C6" s="6">
-        <f>'Cost Data'!$B99</f>
+        <f>'Cost Data'!$B93</f>
         <v>1695890</v>
       </c>
       <c r="D6" s="6">
-        <f>'Cost Data'!$B99</f>
+        <f>'Cost Data'!$B93</f>
         <v>1695890</v>
       </c>
       <c r="E6" s="6">
-        <f>'Cost Data'!$B99</f>
+        <f>'Cost Data'!$B93</f>
         <v>1695890</v>
       </c>
       <c r="F6" s="6">
-        <f>'Cost Data'!$B99</f>
+        <f>'Cost Data'!$B93</f>
         <v>1695890</v>
       </c>
       <c r="G6" s="6">
-        <f>'Cost Data'!$B99</f>
+        <f>'Cost Data'!$B93</f>
         <v>1695890</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="25">
         <v>0</v>
       </c>
     </row>
@@ -3569,25 +6546,25 @@
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="25">
         <v>0</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="25">
         <v>0</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="25">
         <v>0</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="25">
         <v>0</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="25">
         <v>0</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="25">
         <v>0</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="25">
         <v>0</v>
       </c>
     </row>

--- a/InputData/trans/AVMC/Annual Vehicle Maint Cost.xlsx
+++ b/InputData/trans/AVMC/Annual Vehicle Maint Cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\AVMC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\RMI_all_states\AL\trans\AVMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354E2386-ABE2-4A8F-9CE3-0B5B103FA882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B79B0887-3E4B-4AC8-A66E-A7C1237F9385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="165" windowWidth="20895" windowHeight="16965" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="Eno_TM">'[1]1997  Table 1a Modified'!#REF!</definedName>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="144">
   <si>
     <t>Sources:</t>
   </si>
@@ -477,6 +476,9 @@
   </si>
   <si>
     <t>Annual Costs - freight</t>
+  </si>
+  <si>
+    <t>Alabama</t>
   </si>
 </sst>
 </file>
@@ -1313,7 +1315,7 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1324,11 +1326,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="140"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1338,7 +1338,6 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -1350,6 +1349,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="141">
     <cellStyle name="20% - Accent1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1632,1227 +1632,6 @@
       <sheetData sheetId="32"/>
       <sheetData sheetId="33"/>
       <sheetData sheetId="34"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="About"/>
-      <sheetName val="SYVbT-passenger"/>
-      <sheetName val="SYVbT-freight"/>
-      <sheetName val="AVLo-passengers"/>
-      <sheetName val="AVLo-freight"/>
-      <sheetName val="AEO 7"/>
-      <sheetName val="AEO 46"/>
-      <sheetName val="AEO 47"/>
-      <sheetName val="AEO 49"/>
-      <sheetName val="NHTSA Motorbikes"/>
-      <sheetName val="NTS 1-40"/>
-      <sheetName val="NRBS 40"/>
-      <sheetName val="BAADTbVT-passengers"/>
-      <sheetName val="BAADTbVT-freight"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="35">
-          <cell r="B35">
-            <v>2019</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="B2">
-            <v>84.000000000000014</v>
-          </cell>
-          <cell r="C2">
-            <v>14866.598</v>
-          </cell>
-          <cell r="D2">
-            <v>11972117.539999999</v>
-          </cell>
-          <cell r="E2">
-            <v>9818361.2930000015</v>
-          </cell>
-          <cell r="F2">
-            <v>0</v>
-          </cell>
-          <cell r="G2">
-            <v>5402.8509999999997</v>
-          </cell>
-          <cell r="H2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>0</v>
-          </cell>
-          <cell r="C3">
-            <v>43170</v>
-          </cell>
-          <cell r="D3">
-            <v>49465</v>
-          </cell>
-          <cell r="E3">
-            <v>4968137</v>
-          </cell>
-          <cell r="F3">
-            <v>202</v>
-          </cell>
-          <cell r="G3">
-            <v>4008.0000000000005</v>
-          </cell>
-          <cell r="H3">
-            <v>114</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="E4">
-            <v>895.49011199999995</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="E5">
-            <v>26052.44378698225</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="E6">
-            <v>10110</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
-        <row r="4">
-          <cell r="B4">
-            <v>41.989116133258747</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>3512.35916421195</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>1974.4736422180429</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5">
-        <row r="13">
-          <cell r="B13" t="str">
-            <v xml:space="preserve"> Key Indicators and Consumption</v>
-          </cell>
-          <cell r="C13">
-            <v>2019</v>
-          </cell>
-          <cell r="D13">
-            <v>2020</v>
-          </cell>
-          <cell r="E13">
-            <v>2021</v>
-          </cell>
-          <cell r="F13">
-            <v>2022</v>
-          </cell>
-          <cell r="G13">
-            <v>2023</v>
-          </cell>
-          <cell r="H13">
-            <v>2024</v>
-          </cell>
-          <cell r="I13">
-            <v>2025</v>
-          </cell>
-          <cell r="J13">
-            <v>2026</v>
-          </cell>
-          <cell r="K13">
-            <v>2027</v>
-          </cell>
-          <cell r="L13">
-            <v>2028</v>
-          </cell>
-          <cell r="M13">
-            <v>2029</v>
-          </cell>
-          <cell r="N13">
-            <v>2030</v>
-          </cell>
-          <cell r="O13">
-            <v>2031</v>
-          </cell>
-          <cell r="P13">
-            <v>2032</v>
-          </cell>
-          <cell r="Q13">
-            <v>2033</v>
-          </cell>
-          <cell r="R13">
-            <v>2034</v>
-          </cell>
-          <cell r="S13">
-            <v>2035</v>
-          </cell>
-          <cell r="T13">
-            <v>2036</v>
-          </cell>
-          <cell r="U13">
-            <v>2037</v>
-          </cell>
-          <cell r="V13">
-            <v>2038</v>
-          </cell>
-          <cell r="W13">
-            <v>2039</v>
-          </cell>
-          <cell r="X13">
-            <v>2040</v>
-          </cell>
-          <cell r="Y13">
-            <v>2041</v>
-          </cell>
-          <cell r="Z13">
-            <v>2042</v>
-          </cell>
-          <cell r="AA13">
-            <v>2043</v>
-          </cell>
-          <cell r="AB13">
-            <v>2044</v>
-          </cell>
-          <cell r="AC13">
-            <v>2045</v>
-          </cell>
-          <cell r="AD13">
-            <v>2046</v>
-          </cell>
-          <cell r="AE13">
-            <v>2047</v>
-          </cell>
-          <cell r="AF13">
-            <v>2048</v>
-          </cell>
-          <cell r="AG13">
-            <v>2049</v>
-          </cell>
-          <cell r="AH13">
-            <v>2050</v>
-          </cell>
-          <cell r="AI13">
-            <v>2050</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>TKI000:ba_CommercialLig</v>
-          </cell>
-          <cell r="B19" t="str">
-            <v xml:space="preserve">   Commercial Light Trucks 1/</v>
-          </cell>
-          <cell r="C19">
-            <v>99.321113999999994</v>
-          </cell>
-          <cell r="D19">
-            <v>100.61537199999999</v>
-          </cell>
-          <cell r="E19">
-            <v>102.27555099999999</v>
-          </cell>
-          <cell r="F19">
-            <v>103.794495</v>
-          </cell>
-          <cell r="G19">
-            <v>104.99791</v>
-          </cell>
-          <cell r="H19">
-            <v>105.845024</v>
-          </cell>
-          <cell r="I19">
-            <v>106.78964999999999</v>
-          </cell>
-          <cell r="J19">
-            <v>107.83586099999999</v>
-          </cell>
-          <cell r="K19">
-            <v>109.086189</v>
-          </cell>
-          <cell r="L19">
-            <v>110.314789</v>
-          </cell>
-          <cell r="M19">
-            <v>111.61691999999999</v>
-          </cell>
-          <cell r="N19">
-            <v>112.770866</v>
-          </cell>
-          <cell r="O19">
-            <v>114.262428</v>
-          </cell>
-          <cell r="P19">
-            <v>115.52301</v>
-          </cell>
-          <cell r="Q19">
-            <v>116.879272</v>
-          </cell>
-          <cell r="R19">
-            <v>118.14617200000001</v>
-          </cell>
-          <cell r="S19">
-            <v>119.40303</v>
-          </cell>
-          <cell r="T19">
-            <v>120.80527499999999</v>
-          </cell>
-          <cell r="U19">
-            <v>122.152451</v>
-          </cell>
-          <cell r="V19">
-            <v>123.496872</v>
-          </cell>
-          <cell r="W19">
-            <v>124.85643</v>
-          </cell>
-          <cell r="X19">
-            <v>126.275398</v>
-          </cell>
-          <cell r="Y19">
-            <v>127.716537</v>
-          </cell>
-          <cell r="Z19">
-            <v>129.18461600000001</v>
-          </cell>
-          <cell r="AA19">
-            <v>130.70700099999999</v>
-          </cell>
-          <cell r="AB19">
-            <v>132.37408400000001</v>
-          </cell>
-          <cell r="AC19">
-            <v>134.19018600000001</v>
-          </cell>
-          <cell r="AD19">
-            <v>136.27534499999999</v>
-          </cell>
-          <cell r="AE19">
-            <v>138.142303</v>
-          </cell>
-          <cell r="AF19">
-            <v>140.203461</v>
-          </cell>
-          <cell r="AG19">
-            <v>142.34049999999999</v>
-          </cell>
-          <cell r="AH19">
-            <v>144.479523</v>
-          </cell>
-          <cell r="AI19">
-            <v>1.2163E-2</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>TKI000:ba_Rail</v>
-          </cell>
-          <cell r="B27" t="str">
-            <v xml:space="preserve">   Rail</v>
-          </cell>
-          <cell r="C27">
-            <v>1807.96228</v>
-          </cell>
-          <cell r="D27">
-            <v>1730.8404539999999</v>
-          </cell>
-          <cell r="E27">
-            <v>1660.033447</v>
-          </cell>
-          <cell r="F27">
-            <v>1651.259399</v>
-          </cell>
-          <cell r="G27">
-            <v>1652.7242429999999</v>
-          </cell>
-          <cell r="H27">
-            <v>1638.4692379999999</v>
-          </cell>
-          <cell r="I27">
-            <v>1604.7768550000001</v>
-          </cell>
-          <cell r="J27">
-            <v>1643.9995120000001</v>
-          </cell>
-          <cell r="K27">
-            <v>1652.7871090000001</v>
-          </cell>
-          <cell r="L27">
-            <v>1662.7436520000001</v>
-          </cell>
-          <cell r="M27">
-            <v>1655.604004</v>
-          </cell>
-          <cell r="N27">
-            <v>1648.302124</v>
-          </cell>
-          <cell r="O27">
-            <v>1654.8007809999999</v>
-          </cell>
-          <cell r="P27">
-            <v>1663.8508300000001</v>
-          </cell>
-          <cell r="Q27">
-            <v>1673.9210210000001</v>
-          </cell>
-          <cell r="R27">
-            <v>1684.4979249999999</v>
-          </cell>
-          <cell r="S27">
-            <v>1686.8079829999999</v>
-          </cell>
-          <cell r="T27">
-            <v>1698.2738039999999</v>
-          </cell>
-          <cell r="U27">
-            <v>1704.6904300000001</v>
-          </cell>
-          <cell r="V27">
-            <v>1701.2554929999999</v>
-          </cell>
-          <cell r="W27">
-            <v>1711.9681399999999</v>
-          </cell>
-          <cell r="X27">
-            <v>1715.1282960000001</v>
-          </cell>
-          <cell r="Y27">
-            <v>1722.2583010000001</v>
-          </cell>
-          <cell r="Z27">
-            <v>1735.240356</v>
-          </cell>
-          <cell r="AA27">
-            <v>1747.2885739999999</v>
-          </cell>
-          <cell r="AB27">
-            <v>1760.9610600000001</v>
-          </cell>
-          <cell r="AC27">
-            <v>1777.279663</v>
-          </cell>
-          <cell r="AD27">
-            <v>1802.0692140000001</v>
-          </cell>
-          <cell r="AE27">
-            <v>1818.081543</v>
-          </cell>
-          <cell r="AF27">
-            <v>1839.2490230000001</v>
-          </cell>
-          <cell r="AG27">
-            <v>1861.996948</v>
-          </cell>
-          <cell r="AH27">
-            <v>1888.5421140000001</v>
-          </cell>
-          <cell r="AI27">
-            <v>1.408E-3</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>TKI000:ba_DomesticShipp</v>
-          </cell>
-          <cell r="B28" t="str">
-            <v xml:space="preserve">   Domestic Shipping</v>
-          </cell>
-          <cell r="C28">
-            <v>416.68075599999997</v>
-          </cell>
-          <cell r="D28">
-            <v>409.15490699999998</v>
-          </cell>
-          <cell r="E28">
-            <v>404.529877</v>
-          </cell>
-          <cell r="F28">
-            <v>396.47796599999998</v>
-          </cell>
-          <cell r="G28">
-            <v>388.98980699999998</v>
-          </cell>
-          <cell r="H28">
-            <v>379.45697000000001</v>
-          </cell>
-          <cell r="I28">
-            <v>370.07324199999999</v>
-          </cell>
-          <cell r="J28">
-            <v>361.44610599999999</v>
-          </cell>
-          <cell r="K28">
-            <v>352.76406900000001</v>
-          </cell>
-          <cell r="L28">
-            <v>343.56066900000002</v>
-          </cell>
-          <cell r="M28">
-            <v>333.81878699999999</v>
-          </cell>
-          <cell r="N28">
-            <v>323.794983</v>
-          </cell>
-          <cell r="O28">
-            <v>320.25204500000001</v>
-          </cell>
-          <cell r="P28">
-            <v>316.14532500000001</v>
-          </cell>
-          <cell r="Q28">
-            <v>312.65210000000002</v>
-          </cell>
-          <cell r="R28">
-            <v>308.385468</v>
-          </cell>
-          <cell r="S28">
-            <v>304.23715199999998</v>
-          </cell>
-          <cell r="T28">
-            <v>300.63772599999999</v>
-          </cell>
-          <cell r="U28">
-            <v>296.55325299999998</v>
-          </cell>
-          <cell r="V28">
-            <v>292.41882299999997</v>
-          </cell>
-          <cell r="W28">
-            <v>288.76394699999997</v>
-          </cell>
-          <cell r="X28">
-            <v>284.95684799999998</v>
-          </cell>
-          <cell r="Y28">
-            <v>283.66168199999998</v>
-          </cell>
-          <cell r="Z28">
-            <v>282.64859000000001</v>
-          </cell>
-          <cell r="AA28">
-            <v>281.33288599999997</v>
-          </cell>
-          <cell r="AB28">
-            <v>280.511841</v>
-          </cell>
-          <cell r="AC28">
-            <v>279.87280299999998</v>
-          </cell>
-          <cell r="AD28">
-            <v>280.18786599999999</v>
-          </cell>
-          <cell r="AE28">
-            <v>279.40164199999998</v>
-          </cell>
-          <cell r="AF28">
-            <v>279.350281</v>
-          </cell>
-          <cell r="AG28">
-            <v>279.69216899999998</v>
-          </cell>
-          <cell r="AH28">
-            <v>280.25091600000002</v>
-          </cell>
-          <cell r="AI28">
-            <v>-1.2713E-2</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="C62">
-            <v>8.9409000000000002E-2</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="C63">
-            <v>0.92732700000000001</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="1">
-          <cell r="E1">
-            <v>2019</v>
-          </cell>
-          <cell r="F1">
-            <v>2020</v>
-          </cell>
-          <cell r="G1">
-            <v>2021</v>
-          </cell>
-          <cell r="H1">
-            <v>2022</v>
-          </cell>
-          <cell r="I1">
-            <v>2023</v>
-          </cell>
-          <cell r="J1">
-            <v>2024</v>
-          </cell>
-          <cell r="K1">
-            <v>2025</v>
-          </cell>
-          <cell r="L1">
-            <v>2026</v>
-          </cell>
-          <cell r="M1">
-            <v>2027</v>
-          </cell>
-          <cell r="N1">
-            <v>2028</v>
-          </cell>
-          <cell r="O1">
-            <v>2029</v>
-          </cell>
-          <cell r="P1">
-            <v>2030</v>
-          </cell>
-          <cell r="Q1">
-            <v>2031</v>
-          </cell>
-          <cell r="R1">
-            <v>2032</v>
-          </cell>
-          <cell r="S1">
-            <v>2033</v>
-          </cell>
-          <cell r="T1">
-            <v>2034</v>
-          </cell>
-          <cell r="U1">
-            <v>2035</v>
-          </cell>
-          <cell r="V1">
-            <v>2036</v>
-          </cell>
-          <cell r="W1">
-            <v>2037</v>
-          </cell>
-          <cell r="X1">
-            <v>2038</v>
-          </cell>
-          <cell r="Y1">
-            <v>2039</v>
-          </cell>
-          <cell r="Z1">
-            <v>2040</v>
-          </cell>
-          <cell r="AA1">
-            <v>2041</v>
-          </cell>
-          <cell r="AB1">
-            <v>2042</v>
-          </cell>
-          <cell r="AC1">
-            <v>2043</v>
-          </cell>
-          <cell r="AD1">
-            <v>2044</v>
-          </cell>
-          <cell r="AE1">
-            <v>2045</v>
-          </cell>
-          <cell r="AF1">
-            <v>2046</v>
-          </cell>
-          <cell r="AG1">
-            <v>2047</v>
-          </cell>
-          <cell r="AH1">
-            <v>2048</v>
-          </cell>
-          <cell r="AI1">
-            <v>2049</v>
-          </cell>
-          <cell r="AJ1">
-            <v>2050</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64" t="str">
-            <v>United States</v>
-          </cell>
-          <cell r="B64" t="str">
-            <v>Air Travel: Travel Demand: Revenue Ton Miles: Freight: US: High oil and gas supply</v>
-          </cell>
-          <cell r="C64" t="str">
-            <v>57-AEO2020.76.highogs-d112619a</v>
-          </cell>
-          <cell r="D64" t="str">
-            <v>billion miles</v>
-          </cell>
-          <cell r="E64">
-            <v>37.599032999999999</v>
-          </cell>
-          <cell r="F64">
-            <v>37.699356000000002</v>
-          </cell>
-          <cell r="G64">
-            <v>36.927132</v>
-          </cell>
-          <cell r="H64">
-            <v>36.703147999999999</v>
-          </cell>
-          <cell r="I64">
-            <v>36.967593999999998</v>
-          </cell>
-          <cell r="J64">
-            <v>37.303066000000001</v>
-          </cell>
-          <cell r="K64">
-            <v>37.611958000000001</v>
-          </cell>
-          <cell r="L64">
-            <v>38.198112000000002</v>
-          </cell>
-          <cell r="M64">
-            <v>38.870167000000002</v>
-          </cell>
-          <cell r="N64">
-            <v>39.352409000000002</v>
-          </cell>
-          <cell r="O64">
-            <v>39.656612000000003</v>
-          </cell>
-          <cell r="P64">
-            <v>39.579884</v>
-          </cell>
-          <cell r="Q64">
-            <v>39.684184999999999</v>
-          </cell>
-          <cell r="R64">
-            <v>39.678477999999998</v>
-          </cell>
-          <cell r="S64">
-            <v>39.665160999999998</v>
-          </cell>
-          <cell r="T64">
-            <v>39.581394000000003</v>
-          </cell>
-          <cell r="U64">
-            <v>39.535313000000002</v>
-          </cell>
-          <cell r="V64">
-            <v>39.462372000000002</v>
-          </cell>
-          <cell r="W64">
-            <v>39.521683000000003</v>
-          </cell>
-          <cell r="X64">
-            <v>39.362358</v>
-          </cell>
-          <cell r="Y64">
-            <v>39.245784999999998</v>
-          </cell>
-          <cell r="Z64">
-            <v>39.187595000000002</v>
-          </cell>
-          <cell r="AA64">
-            <v>39.247580999999997</v>
-          </cell>
-          <cell r="AB64">
-            <v>39.204383999999997</v>
-          </cell>
-          <cell r="AC64">
-            <v>39.167019000000003</v>
-          </cell>
-          <cell r="AD64">
-            <v>39.129683999999997</v>
-          </cell>
-          <cell r="AE64">
-            <v>39.033023999999997</v>
-          </cell>
-          <cell r="AF64">
-            <v>38.955317999999998</v>
-          </cell>
-          <cell r="AG64">
-            <v>38.899033000000003</v>
-          </cell>
-          <cell r="AH64">
-            <v>38.950684000000003</v>
-          </cell>
-          <cell r="AI64">
-            <v>39.015663000000004</v>
-          </cell>
-          <cell r="AJ64">
-            <v>38.854889</v>
-          </cell>
-          <cell r="AK64">
-            <v>1E-3</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8">
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>full name</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>api key</v>
-          </cell>
-          <cell r="D5" t="str">
-            <v>units</v>
-          </cell>
-          <cell r="E5">
-            <v>2019</v>
-          </cell>
-          <cell r="F5">
-            <v>2020</v>
-          </cell>
-          <cell r="G5">
-            <v>2021</v>
-          </cell>
-          <cell r="H5">
-            <v>2022</v>
-          </cell>
-          <cell r="I5">
-            <v>2023</v>
-          </cell>
-          <cell r="J5">
-            <v>2024</v>
-          </cell>
-          <cell r="K5">
-            <v>2025</v>
-          </cell>
-          <cell r="L5">
-            <v>2026</v>
-          </cell>
-          <cell r="M5">
-            <v>2027</v>
-          </cell>
-          <cell r="N5">
-            <v>2028</v>
-          </cell>
-          <cell r="O5">
-            <v>2029</v>
-          </cell>
-          <cell r="P5">
-            <v>2030</v>
-          </cell>
-          <cell r="Q5">
-            <v>2031</v>
-          </cell>
-          <cell r="R5">
-            <v>2032</v>
-          </cell>
-          <cell r="S5">
-            <v>2033</v>
-          </cell>
-          <cell r="T5">
-            <v>2034</v>
-          </cell>
-          <cell r="U5">
-            <v>2035</v>
-          </cell>
-          <cell r="V5">
-            <v>2036</v>
-          </cell>
-          <cell r="W5">
-            <v>2037</v>
-          </cell>
-          <cell r="X5">
-            <v>2038</v>
-          </cell>
-          <cell r="Y5">
-            <v>2039</v>
-          </cell>
-          <cell r="Z5">
-            <v>2040</v>
-          </cell>
-          <cell r="AA5">
-            <v>2041</v>
-          </cell>
-          <cell r="AB5">
-            <v>2042</v>
-          </cell>
-          <cell r="AC5">
-            <v>2043</v>
-          </cell>
-          <cell r="AD5">
-            <v>2044</v>
-          </cell>
-          <cell r="AE5">
-            <v>2045</v>
-          </cell>
-          <cell r="AF5">
-            <v>2046</v>
-          </cell>
-          <cell r="AG5">
-            <v>2047</v>
-          </cell>
-          <cell r="AH5">
-            <v>2048</v>
-          </cell>
-          <cell r="AI5">
-            <v>2049</v>
-          </cell>
-          <cell r="AJ5">
-            <v>2050</v>
-          </cell>
-          <cell r="AK5" t="str">
-            <v>Growth (2019-2050)</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>Light Medium Subtotal</v>
-          </cell>
-          <cell r="B18" t="str">
-            <v>Freight: Truck Stock: Vehicle Miles Traveled: Light Medium: High oil and gas supply</v>
-          </cell>
-          <cell r="C18" t="str">
-            <v>58-AEO2020.15.highogs-d112619a</v>
-          </cell>
-          <cell r="D18" t="str">
-            <v>billion miles</v>
-          </cell>
-          <cell r="E18">
-            <v>62.116385999999999</v>
-          </cell>
-          <cell r="F18">
-            <v>62.943370999999999</v>
-          </cell>
-          <cell r="G18">
-            <v>64.743599000000003</v>
-          </cell>
-          <cell r="H18">
-            <v>65.987815999999995</v>
-          </cell>
-          <cell r="I18">
-            <v>67.351500999999999</v>
-          </cell>
-          <cell r="J18">
-            <v>68.471275000000006</v>
-          </cell>
-          <cell r="K18">
-            <v>69.755111999999997</v>
-          </cell>
-          <cell r="L18">
-            <v>71.038391000000004</v>
-          </cell>
-          <cell r="M18">
-            <v>72.446449000000001</v>
-          </cell>
-          <cell r="N18">
-            <v>73.775642000000005</v>
-          </cell>
-          <cell r="O18">
-            <v>75.160049000000001</v>
-          </cell>
-          <cell r="P18">
-            <v>76.423125999999996</v>
-          </cell>
-          <cell r="Q18">
-            <v>78.130523999999994</v>
-          </cell>
-          <cell r="R18">
-            <v>79.665405000000007</v>
-          </cell>
-          <cell r="S18">
-            <v>81.316840999999997</v>
-          </cell>
-          <cell r="T18">
-            <v>82.870200999999994</v>
-          </cell>
-          <cell r="U18">
-            <v>84.601653999999996</v>
-          </cell>
-          <cell r="V18">
-            <v>86.379333000000003</v>
-          </cell>
-          <cell r="W18">
-            <v>87.914253000000002</v>
-          </cell>
-          <cell r="X18">
-            <v>89.408103999999994</v>
-          </cell>
-          <cell r="Y18">
-            <v>90.855507000000003</v>
-          </cell>
-          <cell r="Z18">
-            <v>92.309944000000002</v>
-          </cell>
-          <cell r="AA18">
-            <v>93.781006000000005</v>
-          </cell>
-          <cell r="AB18">
-            <v>95.266006000000004</v>
-          </cell>
-          <cell r="AC18">
-            <v>96.675811999999993</v>
-          </cell>
-          <cell r="AD18">
-            <v>98.248458999999997</v>
-          </cell>
-          <cell r="AE18">
-            <v>99.922531000000006</v>
-          </cell>
-          <cell r="AF18">
-            <v>101.865318</v>
-          </cell>
-          <cell r="AG18">
-            <v>103.506516</v>
-          </cell>
-          <cell r="AH18">
-            <v>105.487534</v>
-          </cell>
-          <cell r="AI18">
-            <v>107.584824</v>
-          </cell>
-          <cell r="AJ18">
-            <v>109.87376399999999</v>
-          </cell>
-          <cell r="AK18">
-            <v>1.9E-2</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>Medium Subtotal</v>
-          </cell>
-          <cell r="B29" t="str">
-            <v>Freight: Truck Stock: Vehicle Miles Traveled: Medium: High oil and gas supply</v>
-          </cell>
-          <cell r="C29" t="str">
-            <v>58-AEO2020.26.highogs-d112619a</v>
-          </cell>
-          <cell r="D29" t="str">
-            <v>billion miles</v>
-          </cell>
-          <cell r="E29">
-            <v>54.603447000000003</v>
-          </cell>
-          <cell r="F29">
-            <v>54.781798999999999</v>
-          </cell>
-          <cell r="G29">
-            <v>55.515346999999998</v>
-          </cell>
-          <cell r="H29">
-            <v>56.481617</v>
-          </cell>
-          <cell r="I29">
-            <v>57.581673000000002</v>
-          </cell>
-          <cell r="J29">
-            <v>58.430546</v>
-          </cell>
-          <cell r="K29">
-            <v>59.386108</v>
-          </cell>
-          <cell r="L29">
-            <v>60.457507999999997</v>
-          </cell>
-          <cell r="M29">
-            <v>61.768149999999999</v>
-          </cell>
-          <cell r="N29">
-            <v>63.112183000000002</v>
-          </cell>
-          <cell r="O29">
-            <v>64.546806000000004</v>
-          </cell>
-          <cell r="P29">
-            <v>65.847083999999995</v>
-          </cell>
-          <cell r="Q29">
-            <v>67.496689000000003</v>
-          </cell>
-          <cell r="R29">
-            <v>69.079162999999994</v>
-          </cell>
-          <cell r="S29">
-            <v>70.779044999999996</v>
-          </cell>
-          <cell r="T29">
-            <v>72.377150999999998</v>
-          </cell>
-          <cell r="U29">
-            <v>74.105148</v>
-          </cell>
-          <cell r="V29">
-            <v>75.981803999999997</v>
-          </cell>
-          <cell r="W29">
-            <v>77.792572000000007</v>
-          </cell>
-          <cell r="X29">
-            <v>79.667381000000006</v>
-          </cell>
-          <cell r="Y29">
-            <v>81.581305999999998</v>
-          </cell>
-          <cell r="Z29">
-            <v>83.595695000000006</v>
-          </cell>
-          <cell r="AA29">
-            <v>85.681190000000001</v>
-          </cell>
-          <cell r="AB29">
-            <v>87.862358</v>
-          </cell>
-          <cell r="AC29">
-            <v>90.121964000000006</v>
-          </cell>
-          <cell r="AD29">
-            <v>92.640227999999993</v>
-          </cell>
-          <cell r="AE29">
-            <v>95.345427999999998</v>
-          </cell>
-          <cell r="AF29">
-            <v>98.375381000000004</v>
-          </cell>
-          <cell r="AG29">
-            <v>101.10974899999999</v>
-          </cell>
-          <cell r="AH29">
-            <v>104.14670599999999</v>
-          </cell>
-          <cell r="AI29">
-            <v>107.31989299999999</v>
-          </cell>
-          <cell r="AJ29">
-            <v>110.55276499999999</v>
-          </cell>
-          <cell r="AK29">
-            <v>2.3E-2</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40" t="str">
-            <v>Heavy Subtotal</v>
-          </cell>
-          <cell r="B40" t="str">
-            <v>Freight: Truck Stock: Vehicle Miles Traveled: Heavy: High oil and gas supply</v>
-          </cell>
-          <cell r="C40" t="str">
-            <v>58-AEO2020.37.highogs-d112619a</v>
-          </cell>
-          <cell r="D40" t="str">
-            <v>billion miles</v>
-          </cell>
-          <cell r="E40">
-            <v>187.57427999999999</v>
-          </cell>
-          <cell r="F40">
-            <v>189.93634</v>
-          </cell>
-          <cell r="G40">
-            <v>192.67484999999999</v>
-          </cell>
-          <cell r="H40">
-            <v>195.238831</v>
-          </cell>
-          <cell r="I40">
-            <v>197.73292499999999</v>
-          </cell>
-          <cell r="J40">
-            <v>198.88999899999999</v>
-          </cell>
-          <cell r="K40">
-            <v>200.11705000000001</v>
-          </cell>
-          <cell r="L40">
-            <v>201.199692</v>
-          </cell>
-          <cell r="M40">
-            <v>202.49142499999999</v>
-          </cell>
-          <cell r="N40">
-            <v>203.39149499999999</v>
-          </cell>
-          <cell r="O40">
-            <v>204.320618</v>
-          </cell>
-          <cell r="P40">
-            <v>204.68647799999999</v>
-          </cell>
-          <cell r="Q40">
-            <v>206.036835</v>
-          </cell>
-          <cell r="R40">
-            <v>206.859329</v>
-          </cell>
-          <cell r="S40">
-            <v>207.93722500000001</v>
-          </cell>
-          <cell r="T40">
-            <v>208.573792</v>
-          </cell>
-          <cell r="U40">
-            <v>209.42460600000001</v>
-          </cell>
-          <cell r="V40">
-            <v>210.416504</v>
-          </cell>
-          <cell r="W40">
-            <v>211.109589</v>
-          </cell>
-          <cell r="X40">
-            <v>211.91996800000001</v>
-          </cell>
-          <cell r="Y40">
-            <v>212.676163</v>
-          </cell>
-          <cell r="Z40">
-            <v>213.60458399999999</v>
-          </cell>
-          <cell r="AA40">
-            <v>214.56098900000001</v>
-          </cell>
-          <cell r="AB40">
-            <v>215.668274</v>
-          </cell>
-          <cell r="AC40">
-            <v>216.67707799999999</v>
-          </cell>
-          <cell r="AD40">
-            <v>218.04837000000001</v>
-          </cell>
-          <cell r="AE40">
-            <v>219.66639699999999</v>
-          </cell>
-          <cell r="AF40">
-            <v>221.832581</v>
-          </cell>
-          <cell r="AG40">
-            <v>223.127869</v>
-          </cell>
-          <cell r="AH40">
-            <v>224.901825</v>
-          </cell>
-          <cell r="AI40">
-            <v>226.75671399999999</v>
-          </cell>
-          <cell r="AJ40">
-            <v>228.51850899999999</v>
-          </cell>
-          <cell r="AK40">
-            <v>6.0000000000000001E-3</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3179,23 +1958,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B79"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="73.1796875" customWidth="1"/>
+    <col min="2" max="2" width="73.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="25">
+        <v>44837</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3203,57 +1988,57 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="B4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="B5" s="3">
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="B6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="B7" s="9" t="s">
+    <row r="7" spans="1:3">
+      <c r="B7" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="B9" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="B10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="B11" s="3">
         <v>2013</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="B12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="B13" s="9" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="B14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="B16" s="2" t="s">
         <v>128</v>
       </c>
@@ -3274,7 +2059,7 @@
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="7" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3304,7 +2089,7 @@
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="7" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3334,7 +2119,7 @@
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="7" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3364,7 +2149,7 @@
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="7" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3389,7 +2174,7 @@
       </c>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="7" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3419,7 +2204,7 @@
       </c>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="7" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3449,7 +2234,7 @@
       </c>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="7" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3479,7 +2264,7 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="7" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3571,20 +2356,20 @@
       <selection activeCell="N2" sqref="N2:N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="12" max="12" width="10.81640625" customWidth="1"/>
-    <col min="13" max="13" width="10.26953125" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="11:14" s="27" customFormat="1" ht="43.5">
-      <c r="L1" s="27" t="s">
+    <row r="1" spans="11:14" s="24" customFormat="1" ht="45">
+      <c r="L1" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="24" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3650,19 +2435,19 @@
       <selection activeCell="A17" sqref="A17:XFD22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.54296875" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.26953125" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
@@ -3688,7 +2473,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3716,17 +2501,17 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="23" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="23" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3734,14 +2519,14 @@
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="8">
         <v>15000</v>
       </c>
       <c r="C18" t="s">
@@ -3755,7 +2540,7 @@
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="8">
         <f>6500+100*1062*3/28</f>
         <v>17878.571428571428</v>
       </c>
@@ -3770,14 +2555,14 @@
       <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="10">
         <v>0.28000000000000003</v>
       </c>
       <c r="C22" t="s">
@@ -3791,7 +2576,7 @@
       <c r="A23" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="10">
         <v>0.22</v>
       </c>
       <c r="C23" t="s">
@@ -3811,7 +2596,7 @@
       <c r="C24" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="11" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3819,7 +2604,7 @@
       <c r="A25" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="10">
         <f>$B$24*B22</f>
         <v>2595.6000000000004</v>
       </c>
@@ -3831,7 +2616,7 @@
       <c r="A26" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="10">
         <f>$B$24*B23</f>
         <v>2039.4</v>
       </c>
@@ -3843,7 +2628,7 @@
       <c r="A27" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="10">
         <f>B25*About!$A$77</f>
         <v>2482.986689554888</v>
       </c>
@@ -3855,7 +2640,7 @@
       <c r="A28" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="10">
         <f>B26*About!$A$77</f>
         <v>1950.9181132216977</v>
       </c>
@@ -3864,20 +2649,20 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="B29" s="12"/>
+      <c r="B29" s="10"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="11"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="9"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="14">
         <v>590</v>
       </c>
       <c r="C31" t="s">
@@ -3888,7 +2673,7 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="B32" s="16">
+      <c r="B32" s="14">
         <f>B31*About!$A$78</f>
         <v>552.6291612271541</v>
       </c>
@@ -3897,7 +2682,7 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="B33" s="18">
+      <c r="B33">
         <v>11.3</v>
       </c>
       <c r="C33" t="s">
@@ -3908,7 +2693,7 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="B34" s="18">
+      <c r="B34">
         <v>365</v>
       </c>
       <c r="C34" t="s">
@@ -3916,7 +2701,7 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="B35" s="16">
+      <c r="B35" s="14">
         <f>B32*B33*B34</f>
         <v>2279318.9754813975</v>
       </c>
@@ -3925,32 +2710,32 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="B36" s="16"/>
+      <c r="B36" s="14"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="11"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="9"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="16"/>
+      <c r="B38" s="14"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B39" s="16"/>
+      <c r="B39" s="14"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="10">
         <v>14.36</v>
       </c>
       <c r="C40" t="s">
@@ -3964,7 +2749,7 @@
       <c r="A41" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="10">
         <v>10.49</v>
       </c>
       <c r="C41" t="s">
@@ -3975,13 +2760,13 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="B42" s="16"/>
+      <c r="B42" s="14"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>102</v>
       </c>
-      <c r="B43" s="23">
+      <c r="B43" s="20">
         <f>AVERAGE(21.4,22.7,23.1,25.8,31.2)</f>
         <v>24.839999999999996</v>
       </c>
@@ -3996,7 +2781,7 @@
       <c r="A44" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="18">
+      <c r="B44">
         <f>24*365</f>
         <v>8760</v>
       </c>
@@ -4017,13 +2802,13 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="B46" s="16"/>
+      <c r="B46" s="14"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>85</v>
       </c>
-      <c r="B47" s="16">
+      <c r="B47" s="14">
         <f>B40*B45</f>
         <v>3124713.0239999993</v>
       </c>
@@ -4035,7 +2820,7 @@
       <c r="A48" t="s">
         <v>89</v>
       </c>
-      <c r="B48" s="16">
+      <c r="B48" s="14">
         <f>B41*B45</f>
         <v>2282607.2159999995</v>
       </c>
@@ -4047,7 +2832,7 @@
       <c r="A49" t="s">
         <v>85</v>
       </c>
-      <c r="B49" s="16">
+      <c r="B49" s="14">
         <f>B47*About!$A$79</f>
         <v>3332119.6733545554</v>
       </c>
@@ -4059,7 +2844,7 @@
       <c r="A50" t="s">
         <v>89</v>
       </c>
-      <c r="B50" s="16">
+      <c r="B50" s="14">
         <f>B48*About!$A$79</f>
         <v>2434118.0622207024</v>
       </c>
@@ -4068,23 +2853,23 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="B51" s="16"/>
+      <c r="B51" s="14"/>
     </row>
     <row r="52" spans="1:3">
-      <c r="B52" s="12"/>
+      <c r="B52" s="10"/>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B53" s="17"/>
-      <c r="C53" s="11"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="9"/>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="16">
+      <c r="B54" s="14">
         <v>1000</v>
       </c>
       <c r="C54" t="s">
@@ -4092,7 +2877,7 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="B55" s="16">
+      <c r="B55" s="14">
         <f>B54*About!A76</f>
         <v>914.32735845675347</v>
       </c>
@@ -4104,44 +2889,44 @@
       <c r="A56" t="s">
         <v>69</v>
       </c>
-      <c r="B56" s="12"/>
+      <c r="B56" s="10"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="12"/>
+      <c r="B57" s="10"/>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>71</v>
       </c>
-      <c r="B58" s="12"/>
+      <c r="B58" s="10"/>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>72</v>
       </c>
-      <c r="B59" s="12"/>
+      <c r="B59" s="10"/>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B60" s="12"/>
+      <c r="B60" s="10"/>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>74</v>
       </c>
-      <c r="B61" s="12"/>
+      <c r="B61" s="10"/>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1" t="s">
@@ -4152,7 +2937,7 @@
       <c r="A65" t="s">
         <v>105</v>
       </c>
-      <c r="B65" s="16">
+      <c r="B65" s="14">
         <v>1695890</v>
       </c>
       <c r="C65" t="s">
@@ -4165,17 +2950,17 @@
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="11" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="13" t="s">
+      <c r="A69" s="11" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="13" t="s">
+      <c r="A70" s="11" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4183,7 +2968,7 @@
       <c r="A71" t="s">
         <v>105</v>
       </c>
-      <c r="B71" s="24">
+      <c r="B71" s="21">
         <v>0.1</v>
       </c>
       <c r="C71" t="s">
@@ -4191,16 +2976,16 @@
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="13" t="s">
+      <c r="A72" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B72" s="10">
+      <c r="B72" s="8">
         <v>30000</v>
       </c>
       <c r="C72" t="s">
         <v>117</v>
       </c>
-      <c r="D72" s="13" t="s">
+      <c r="D72" s="11" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4208,7 +2993,7 @@
       <c r="A73" t="s">
         <v>105</v>
       </c>
-      <c r="B73" s="10">
+      <c r="B73" s="8">
         <f>B71*B72</f>
         <v>3000</v>
       </c>
@@ -4217,11 +3002,11 @@
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="14" t="s">
+      <c r="A78" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B78" s="15"/>
-      <c r="C78" s="15"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
     </row>
     <row r="79" spans="1:4">
       <c r="B79" s="1" t="s">
@@ -4235,11 +3020,11 @@
       <c r="A80" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B80" s="19">
+      <c r="B80" s="16">
         <f>LDVs!M2</f>
         <v>1146.6070044711444</v>
       </c>
-      <c r="C80" s="19">
+      <c r="C80" s="16">
         <f>LDVs!M4</f>
         <v>692.50522052217627</v>
       </c>
@@ -4248,11 +3033,11 @@
       <c r="A81" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B81" s="19">
+      <c r="B81" s="16">
         <f>B27</f>
         <v>2482.986689554888</v>
       </c>
-      <c r="C81" s="19">
+      <c r="C81" s="16">
         <f>B28</f>
         <v>1950.9181132216977</v>
       </c>
@@ -4261,7 +3046,7 @@
       <c r="A82" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B82" s="19">
+      <c r="B82" s="16">
         <f>B35</f>
         <v>2279318.9754813975</v>
       </c>
@@ -4274,11 +3059,11 @@
       <c r="A83" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B83" s="19">
+      <c r="B83" s="16">
         <f>B49</f>
         <v>3332119.6733545554</v>
       </c>
-      <c r="C83" s="19">
+      <c r="C83" s="16">
         <f>B50</f>
         <v>2434118.0622207024</v>
       </c>
@@ -4287,7 +3072,7 @@
       <c r="A84" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B84" s="19">
+      <c r="B84" s="16">
         <f>B73</f>
         <v>3000</v>
       </c>
@@ -4300,21 +3085,21 @@
       <c r="A85" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B85" s="19">
+      <c r="B85" s="16">
         <f>B55</f>
         <v>914.32735845675347</v>
       </c>
-      <c r="C85" s="20">
+      <c r="C85" s="17">
         <f>B85*(C80/B80)</f>
         <v>552.21751352338572</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B87" s="15"/>
-      <c r="C87" s="15"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
     </row>
     <row r="88" spans="1:3">
       <c r="B88" s="1" t="s">
@@ -4328,11 +3113,11 @@
       <c r="A89" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B89" s="19">
+      <c r="B89" s="16">
         <f>LDVs!N2</f>
         <v>1000.4265479134275</v>
       </c>
-      <c r="C89" s="19">
+      <c r="C89" s="16">
         <f>LDVs!N4</f>
         <v>604.21801408632746</v>
       </c>
@@ -4341,11 +3126,11 @@
       <c r="A90" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B90" s="19">
+      <c r="B90" s="16">
         <f>B18</f>
         <v>15000</v>
       </c>
-      <c r="C90" s="20">
+      <c r="C90" s="17">
         <f>B90*(C81/B81)</f>
         <v>11785.714285714286</v>
       </c>
@@ -4354,7 +3139,7 @@
       <c r="A91" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B91" s="19">
+      <c r="B91" s="16">
         <f>B82</f>
         <v>2279318.9754813975</v>
       </c>
@@ -4367,11 +3152,11 @@
       <c r="A92" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B92" s="19">
+      <c r="B92" s="16">
         <f>B49</f>
         <v>3332119.6733545554</v>
       </c>
-      <c r="C92" s="19">
+      <c r="C92" s="16">
         <f>B50</f>
         <v>2434118.0622207024</v>
       </c>
@@ -4380,7 +3165,7 @@
       <c r="A93" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B93" s="19">
+      <c r="B93" s="16">
         <f>B65</f>
         <v>1695890</v>
       </c>
@@ -4421,9 +3206,9 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.1796875" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
@@ -5167,13 +3952,13 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.6328125" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="29">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:33" ht="30">
+      <c r="A1" s="6" t="s">
         <v>134</v>
       </c>
       <c r="B1" s="1">
@@ -5278,7 +4063,6 @@
         <v>2</v>
       </c>
       <c r="B2" s="5">
-        <f>(INDEX('[2]AEO 7'!19:19,MATCH([2]About!$B$35,'[2]AEO 7'!$13:$13,0))+INDEX('[2]AEO 49'!18:18,MATCH(B1,'[2]AEO 49'!5:5,0))+INDEX('[2]AEO 49'!29:29,MATCH(B1,'[2]AEO 49'!5:5,0)))*1000000000/SUM('[2]SYVbT-freight'!$B$2:$H$2)</f>
         <v>9905.2133456774991</v>
       </c>
       <c r="C2" s="5">
@@ -5411,7 +4195,6 @@
         <v>3</v>
       </c>
       <c r="B3" s="5">
-        <f>(INDEX('[2]AEO 49'!40:40,MATCH([2]About!$B$35,'[2]AEO 49'!5:5,0)))*1000000000/SUM('[2]SYVbT-freight'!$B$3:$H$3)</f>
         <v>37032.719616765411</v>
       </c>
       <c r="C3" s="5">
@@ -5544,7 +4327,6 @@
         <v>4</v>
       </c>
       <c r="B4" s="5">
-        <f>(INDEX('[2]AEO 47'!64:64,MATCH([2]About!$B$35,'[2]AEO 47'!$1:$1,0))*1000000000)/'[2]SYVbT-freight'!E4/'[2]AVLo-freight'!B4</f>
         <v>999951.98753447877</v>
       </c>
       <c r="C4" s="5">
@@ -5677,7 +4459,6 @@
         <v>5</v>
       </c>
       <c r="B5" s="5">
-        <f>INDEX('[2]AEO 7'!27:27,MATCH([2]About!$B$35,'[2]AEO 7'!$13:$13,0))*1000000000/'[2]SYVbT-freight'!E5/'[2]AVLo-freight'!B5</f>
         <v>19757.954395082073</v>
       </c>
       <c r="C5" s="5">
@@ -5810,7 +4591,6 @@
         <v>6</v>
       </c>
       <c r="B6" s="5">
-        <f>(INDEX('[2]AEO 7'!28:28,MATCH([2]About!$B$35,'[2]AEO 7'!$13:$13,0))*1000000000/'[2]SYVbT-freight'!E6/'[2]AVLo-freight'!B6)*(('[2]AEO 7'!C62+'[2]AEO 7'!C63)/'[2]AEO 7'!C62)</f>
         <v>237371.13741892608</v>
       </c>
       <c r="C6" s="5">
@@ -6082,22 +4862,22 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" customWidth="1"/>
-    <col min="6" max="8" width="23.26953125" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="8" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -6192,7 +4972,7 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="22">
         <v>0</v>
       </c>
       <c r="C4" s="5">
@@ -6215,7 +4995,7 @@
         <f>'Cost Data'!$B82</f>
         <v>2279318.9754813975</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="22">
         <v>0</v>
       </c>
     </row>
@@ -6224,39 +5004,39 @@
         <v>5</v>
       </c>
       <c r="B5" s="5">
-        <f>'Cost Data'!$C83</f>
-        <v>2434118.0622207024</v>
+        <f>'Cost Data'!$C83/10</f>
+        <v>243411.80622207024</v>
       </c>
       <c r="C5" s="5">
-        <f>'Cost Data'!$B83</f>
-        <v>3332119.6733545554</v>
+        <f>'Cost Data'!$B83/10</f>
+        <v>333211.96733545553</v>
       </c>
       <c r="D5" s="5">
-        <f>'Cost Data'!$B83</f>
-        <v>3332119.6733545554</v>
+        <f>'Cost Data'!$B83/10</f>
+        <v>333211.96733545553</v>
       </c>
       <c r="E5" s="5">
-        <f>'Cost Data'!$B83</f>
-        <v>3332119.6733545554</v>
+        <f>'Cost Data'!$B83/10</f>
+        <v>333211.96733545553</v>
       </c>
       <c r="F5" s="5">
-        <f>'Cost Data'!$B83</f>
-        <v>3332119.6733545554</v>
+        <f>'Cost Data'!$B83/10</f>
+        <v>333211.96733545553</v>
       </c>
       <c r="G5" s="5">
-        <f>'Cost Data'!$B83</f>
-        <v>3332119.6733545554</v>
+        <f>'Cost Data'!$B83/10</f>
+        <v>333211.96733545553</v>
       </c>
       <c r="H5" s="5">
-        <f>'Cost Data'!$C83</f>
-        <v>2434118.0622207024</v>
+        <f>'Cost Data'!$C83/10</f>
+        <v>243411.80622207024</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="22">
         <v>0</v>
       </c>
       <c r="C6" s="5">
@@ -6279,7 +5059,7 @@
         <f>'Cost Data'!$B84</f>
         <v>3000</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="22">
         <v>0</v>
       </c>
     </row>
@@ -6315,10 +5095,6 @@
         <f>'Cost Data'!$C85</f>
         <v>552.21751352338572</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:8">
       <c r="B9" s="5"/>
@@ -6339,24 +5115,24 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" customWidth="1"/>
-    <col min="6" max="8" width="23.26953125" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="8" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -6385,31 +5161,31 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <f>LDVs!N4</f>
         <v>604.21801408632746</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <f>LDVs!$N$2</f>
         <v>1000.4265479134275</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <f>LDVs!$N$2</f>
         <v>1000.4265479134275</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <f>LDVs!$N$2</f>
         <v>1000.4265479134275</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <f>LDVs!N3</f>
         <v>891.46920111097484</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <f>LDVs!$N$2</f>
         <v>1000.4265479134275</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <f>B2</f>
         <v>604.21801408632746</v>
       </c>
@@ -6418,31 +5194,31 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <f>'Cost Data'!B19</f>
         <v>17878.571428571428</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <f>'Cost Data'!$B90</f>
         <v>15000</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <f>'Cost Data'!$B90</f>
         <v>15000</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <f>'Cost Data'!$B90</f>
         <v>15000</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <f>'Cost Data'!$B90</f>
         <v>15000</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <f>'Cost Data'!$B90</f>
         <v>15000</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <f>'Cost Data'!$C90</f>
         <v>11785.714285714286</v>
       </c>
@@ -6451,30 +5227,30 @@
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="22">
         <v>0</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <f>'Cost Data'!$B91</f>
         <v>2279318.9754813975</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <f>'Cost Data'!$B91</f>
         <v>2279318.9754813975</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <f>'Cost Data'!$B91</f>
         <v>2279318.9754813975</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <f>'Cost Data'!$B91</f>
         <v>2279318.9754813975</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <f>'Cost Data'!$B91</f>
         <v>2279318.9754813975</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="22">
         <v>0</v>
       </c>
     </row>
@@ -6482,31 +5258,31 @@
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <f>'Cost Data'!$C92</f>
         <v>2434118.0622207024</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <f>'Cost Data'!$B92</f>
         <v>3332119.6733545554</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <f>'Cost Data'!$B92</f>
         <v>3332119.6733545554</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <f>'Cost Data'!$B92</f>
         <v>3332119.6733545554</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <f>'Cost Data'!$B92</f>
         <v>3332119.6733545554</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <f>'Cost Data'!$B92</f>
         <v>3332119.6733545554</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <f>'Cost Data'!$C92</f>
         <v>2434118.0622207024</v>
       </c>
@@ -6515,30 +5291,30 @@
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="22">
         <v>0</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <f>'Cost Data'!$B93</f>
         <v>1695890</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <f>'Cost Data'!$B93</f>
         <v>1695890</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <f>'Cost Data'!$B93</f>
         <v>1695890</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <f>'Cost Data'!$B93</f>
         <v>1695890</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <f>'Cost Data'!$B93</f>
         <v>1695890</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="22">
         <v>0</v>
       </c>
     </row>
@@ -6546,36 +5322,27 @@
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="22">
         <v>0</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="22">
         <v>0</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="22">
         <v>0</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="22">
         <v>0</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="22">
         <v>0</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="22">
         <v>0</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="22">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InputData/trans/AVMC/Annual Vehicle Maint Cost.xlsx
+++ b/InputData/trans/AVMC/Annual Vehicle Maint Cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\RMI_all_states\AL\trans\AVMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B79B0887-3E4B-4AC8-A66E-A7C1237F9385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B09BF77B-D1AF-4E60-879C-3C5B359DAC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="165" windowWidth="20895" windowHeight="16965" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12720" yWindow="285" windowWidth="15915" windowHeight="16410" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1977,7 +1977,7 @@
         <v>143</v>
       </c>
       <c r="C1" s="25">
-        <v>44837</v>
+        <v>44944</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5004,32 +5004,32 @@
         <v>5</v>
       </c>
       <c r="B5" s="5">
-        <f>'Cost Data'!$C83/10</f>
-        <v>243411.80622207024</v>
+        <f>'Cost Data'!$C83</f>
+        <v>2434118.0622207024</v>
       </c>
       <c r="C5" s="5">
-        <f>'Cost Data'!$B83/10</f>
-        <v>333211.96733545553</v>
+        <f>'Cost Data'!$B83</f>
+        <v>3332119.6733545554</v>
       </c>
       <c r="D5" s="5">
-        <f>'Cost Data'!$B83/10</f>
-        <v>333211.96733545553</v>
+        <f>'Cost Data'!$B83</f>
+        <v>3332119.6733545554</v>
       </c>
       <c r="E5" s="5">
-        <f>'Cost Data'!$B83/10</f>
-        <v>333211.96733545553</v>
+        <f>'Cost Data'!$B83</f>
+        <v>3332119.6733545554</v>
       </c>
       <c r="F5" s="5">
-        <f>'Cost Data'!$B83/10</f>
-        <v>333211.96733545553</v>
+        <f>'Cost Data'!$B83</f>
+        <v>3332119.6733545554</v>
       </c>
       <c r="G5" s="5">
-        <f>'Cost Data'!$B83/10</f>
-        <v>333211.96733545553</v>
+        <f>'Cost Data'!$B83</f>
+        <v>3332119.6733545554</v>
       </c>
       <c r="H5" s="5">
-        <f>'Cost Data'!$C83/10</f>
-        <v>243411.80622207024</v>
+        <f>'Cost Data'!$C83</f>
+        <v>2434118.0622207024</v>
       </c>
     </row>
     <row r="6" spans="1:8">
